--- a/data/old_posteriors/no_elementary_skills/complex_model/leak/unconstrained/results_model2a_leak_unconstrained.xlsx
+++ b/data/old_posteriors/no_elementary_skills/complex_model/leak/unconstrained/results_model2a_leak_unconstrained.xlsx
@@ -622,31 +622,31 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F3" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G3" t="n" s="25">
-        <v>0.9905447543875435</v>
+        <v>0.9801583735457805</v>
       </c>
       <c r="H3" t="n" s="25">
-        <v>0.6759732491923403</v>
+        <v>0.6588790382688317</v>
       </c>
       <c r="I3" t="n" s="25">
-        <v>0.9225847489887757</v>
+        <v>0.8903167549556674</v>
       </c>
       <c r="J3" t="n" s="25">
-        <v>0.9987704843984301</v>
+        <v>0.9915664973537827</v>
       </c>
       <c r="K3" t="n" s="25">
-        <v>0.7668333323364569</v>
+        <v>0.739974942992095</v>
       </c>
       <c r="L3" t="n" s="25">
-        <v>0.8787815637591904</v>
+        <v>0.792911923811492</v>
       </c>
       <c r="M3" t="n" s="25">
-        <v>1.0</v>
+        <v>0.05094996894600541</v>
       </c>
       <c r="N3" t="n" s="25">
         <v>0.5</v>
@@ -657,31 +657,31 @@
         <v>2.0</v>
       </c>
       <c r="E4" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F4" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G4" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H4" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I4" t="n" s="25">
-        <v>0.9774115022152837</v>
+        <v>0.9656870919583598</v>
       </c>
       <c r="J4" t="n" s="25">
-        <v>0.999998443706721</v>
+        <v>0.9999820056233123</v>
       </c>
       <c r="K4" t="n" s="25">
-        <v>0.8514964378770785</v>
+        <v>0.8209849684438301</v>
       </c>
       <c r="L4" t="n" s="25">
-        <v>0.9984532016357349</v>
+        <v>0.9960542097761967</v>
       </c>
       <c r="M4" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999811624386823</v>
       </c>
       <c r="N4" t="n" s="25">
         <v>0.5</v>
@@ -692,31 +692,31 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F5" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G5" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H5" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I5" t="n" s="25">
-        <v>0.9891623086301198</v>
+        <v>0.9818614716871283</v>
       </c>
       <c r="J5" t="n" s="25">
-        <v>0.999999975108889</v>
+        <v>0.9999995415001934</v>
       </c>
       <c r="K5" t="n" s="25">
-        <v>0.9170511145024015</v>
+        <v>0.8899169356367348</v>
       </c>
       <c r="L5" t="n" s="25">
-        <v>0.9998098787013193</v>
+        <v>0.999312776274957</v>
       </c>
       <c r="M5" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999998542785645</v>
       </c>
       <c r="N5" t="n" s="25">
         <v>0.5</v>
@@ -727,31 +727,31 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F6" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G6" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H6" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I6" t="n" s="25">
-        <v>0.9891623086301198</v>
+        <v>0.9818614716871283</v>
       </c>
       <c r="J6" t="n" s="25">
-        <v>0.999999975108889</v>
+        <v>0.9999995415001934</v>
       </c>
       <c r="K6" t="n" s="25">
-        <v>0.9435584153097322</v>
+        <v>0.9203571137590745</v>
       </c>
       <c r="L6" t="n" s="25">
-        <v>0.9999464899149909</v>
+        <v>0.9997602436132975</v>
       </c>
       <c r="M6" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999968239953</v>
       </c>
       <c r="N6" t="n" s="25">
         <v>0.5</v>
@@ -762,31 +762,31 @@
         <v>5.0</v>
       </c>
       <c r="E7" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F7" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G7" t="n" s="25">
-        <v>0.9975838591692355</v>
+        <v>0.9945341691851166</v>
       </c>
       <c r="H7" t="n" s="25">
-        <v>0.7184307993411199</v>
+        <v>0.6979648231422694</v>
       </c>
       <c r="I7" t="n" s="25">
-        <v>0.9843367009389025</v>
+        <v>0.9750195763274834</v>
       </c>
       <c r="J7" t="n" s="25">
-        <v>0.9999980017318753</v>
+        <v>0.9999764665225236</v>
       </c>
       <c r="K7" t="n" s="25">
-        <v>0.909063771557706</v>
+        <v>0.8808214050068229</v>
       </c>
       <c r="L7" t="n" s="25">
-        <v>0.9992115519327893</v>
+        <v>0.9972824254830845</v>
       </c>
       <c r="M7" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999786300675315</v>
       </c>
       <c r="N7" t="n" s="25">
         <v>0.5</v>
@@ -797,31 +797,31 @@
         <v>6.0</v>
       </c>
       <c r="E8" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F8" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G8" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H8" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I8" t="n" s="25">
-        <v>0.9774115022152837</v>
+        <v>0.9656870919583598</v>
       </c>
       <c r="J8" t="n" s="25">
-        <v>0.999998443706721</v>
+        <v>0.9999820056233123</v>
       </c>
       <c r="K8" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555407</v>
       </c>
       <c r="L8" t="n" s="25">
-        <v>0.9774115022152837</v>
+        <v>0.9656870919583597</v>
       </c>
       <c r="M8" t="n" s="25">
-        <v>0.9826221519217031</v>
+        <v>0.8302301869083947</v>
       </c>
       <c r="N8" t="n" s="25">
         <v>0.5</v>
@@ -832,31 +832,31 @@
         <v>7.0</v>
       </c>
       <c r="E9" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F9" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G9" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H9" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I9" t="n" s="25">
-        <v>0.9891623086301198</v>
+        <v>0.9818614716871283</v>
       </c>
       <c r="J9" t="n" s="25">
-        <v>0.999999975108889</v>
+        <v>0.9999995415001934</v>
       </c>
       <c r="K9" t="n" s="25">
-        <v>0.9648828038515443</v>
+        <v>0.946087052304166</v>
       </c>
       <c r="L9" t="n" s="25">
-        <v>0.9999872531199595</v>
+        <v>0.9999233356734053</v>
       </c>
       <c r="M9" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999998657335</v>
       </c>
       <c r="N9" t="n" s="25">
         <v>0.5</v>
@@ -867,31 +867,31 @@
         <v>8.0</v>
       </c>
       <c r="E10" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F10" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G10" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H10" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I10" t="n" s="25">
-        <v>0.9774115022152837</v>
+        <v>0.9656870919583598</v>
       </c>
       <c r="J10" t="n" s="25">
-        <v>0.999998443706721</v>
+        <v>0.9999820056233123</v>
       </c>
       <c r="K10" t="n" s="25">
-        <v>0.9003908496322294</v>
+        <v>0.8710832297949048</v>
       </c>
       <c r="L10" t="n" s="25">
-        <v>0.9995990595513126</v>
+        <v>0.9986790331840258</v>
       </c>
       <c r="M10" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999994280918483</v>
       </c>
       <c r="N10" t="n" s="25">
         <v>0.5</v>
@@ -902,31 +902,31 @@
         <v>9.0</v>
       </c>
       <c r="E11" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F11" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G11" t="n" s="25">
-        <v>0.9909826712009305</v>
+        <v>0.983273624726918</v>
       </c>
       <c r="H11" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I11" t="n" s="25">
-        <v>0.9891623086301198</v>
+        <v>0.9818614716871283</v>
       </c>
       <c r="J11" t="n" s="25">
-        <v>0.9999075843526781</v>
+        <v>0.9993392991419202</v>
       </c>
       <c r="K11" t="n" s="25">
-        <v>0.9412823169919786</v>
+        <v>0.917923344476617</v>
       </c>
       <c r="L11" t="n" s="25">
-        <v>0.9988499994029915</v>
+        <v>0.9950260244355597</v>
       </c>
       <c r="M11" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9993100146410534</v>
       </c>
       <c r="N11" t="n" s="25">
         <v>0.5</v>
@@ -937,31 +937,31 @@
         <v>10.0</v>
       </c>
       <c r="E12" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F12" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G12" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H12" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I12" t="n" s="25">
-        <v>0.9891623086301198</v>
+        <v>0.9818614716871283</v>
       </c>
       <c r="J12" t="n" s="25">
-        <v>0.999999975108889</v>
+        <v>0.9999995415001934</v>
       </c>
       <c r="K12" t="n" s="25">
-        <v>0.9648828038515443</v>
+        <v>0.946087052304166</v>
       </c>
       <c r="L12" t="n" s="25">
-        <v>0.9999872531199595</v>
+        <v>0.9999233356734053</v>
       </c>
       <c r="M12" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999998657335</v>
       </c>
       <c r="N12" t="n" s="25">
         <v>0.5</v>
@@ -972,31 +972,31 @@
         <v>11.0</v>
       </c>
       <c r="E13" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F13" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G13" t="n" s="25">
-        <v>0.507310291287942</v>
+        <v>0.46164019447081706</v>
       </c>
       <c r="H13" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I13" t="n" s="25">
-        <v>0.9785570097703955</v>
+        <v>0.9643692330493995</v>
       </c>
       <c r="J13" t="n" s="25">
-        <v>0.36488196214899343</v>
+        <v>0.22106837358093456</v>
       </c>
       <c r="K13" t="n" s="25">
-        <v>0.9822727798292382</v>
+        <v>0.97022558713268</v>
       </c>
       <c r="L13" t="n" s="25">
-        <v>0.9998650848765903</v>
+        <v>0.9988772325250259</v>
       </c>
       <c r="M13" t="n" s="25">
-        <v>1.0</v>
+        <v>0.019585090318786153</v>
       </c>
       <c r="N13" t="n" s="25">
         <v>0.5</v>
@@ -1007,31 +1007,31 @@
         <v>12.0</v>
       </c>
       <c r="E14" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F14" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G14" t="n" s="25">
-        <v>0.8818685184042602</v>
+        <v>0.8557294509101542</v>
       </c>
       <c r="H14" t="n" s="25">
-        <v>0.7625001560855269</v>
+        <v>0.7391331680517135</v>
       </c>
       <c r="I14" t="n" s="25">
-        <v>0.9929939228122315</v>
+        <v>0.9875388164375846</v>
       </c>
       <c r="J14" t="n" s="25">
-        <v>0.294652720593603</v>
+        <v>0.13945335424333338</v>
       </c>
       <c r="K14" t="n" s="25">
-        <v>0.8350190175018967</v>
+        <v>0.8067460102017089</v>
       </c>
       <c r="L14" t="n" s="25">
-        <v>0.25197696224932087</v>
+        <v>0.1274378730084936</v>
       </c>
       <c r="M14" t="n" s="25">
-        <v>8.737039185958557E-8</v>
+        <v>2.6281157157081326E-8</v>
       </c>
       <c r="N14" t="n" s="25">
         <v>0.5</v>
@@ -1042,31 +1042,31 @@
         <v>13.0</v>
       </c>
       <c r="E15" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F15" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G15" t="n" s="25">
-        <v>0.9920339945486174</v>
+        <v>0.9847011229293555</v>
       </c>
       <c r="H15" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I15" t="n" s="25">
-        <v>0.9774115022152837</v>
+        <v>0.9656870919583598</v>
       </c>
       <c r="J15" t="n" s="25">
-        <v>0.9791873352720384</v>
+        <v>0.9028696119960008</v>
       </c>
       <c r="K15" t="n" s="25">
-        <v>0.8514964378770785</v>
+        <v>0.8209849684438301</v>
       </c>
       <c r="L15" t="n" s="25">
-        <v>0.873720113722212</v>
+        <v>0.7301515685798806</v>
       </c>
       <c r="M15" t="n" s="25">
-        <v>1.0</v>
+        <v>0.009426250879680733</v>
       </c>
       <c r="N15" t="n" s="25">
         <v>0.5</v>
@@ -1077,31 +1077,31 @@
         <v>14.0</v>
       </c>
       <c r="E16" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F16" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G16" t="n" s="25">
-        <v>0.9750179541138628</v>
+        <v>0.9611912781355741</v>
       </c>
       <c r="H16" t="n" s="25">
-        <v>0.7625001560855269</v>
+        <v>0.7391331680517135</v>
       </c>
       <c r="I16" t="n" s="25">
-        <v>0.9929939228122315</v>
+        <v>0.9875388164375846</v>
       </c>
       <c r="J16" t="n" s="25">
-        <v>0.999990761682403</v>
+        <v>0.9999438494817486</v>
       </c>
       <c r="K16" t="n" s="25">
-        <v>0.9690030355016125</v>
+        <v>0.9516230509423709</v>
       </c>
       <c r="L16" t="n" s="25">
-        <v>0.9999917914777987</v>
+        <v>0.9999476330635205</v>
       </c>
       <c r="M16" t="n" s="25">
-        <v>0.9998778758926493</v>
+        <v>0.9973586761903487</v>
       </c>
       <c r="N16" t="n" s="25">
         <v>0.5</v>
@@ -1112,31 +1112,31 @@
         <v>15.0</v>
       </c>
       <c r="E17" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F17" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G17" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H17" t="n" s="25">
-        <v>0.7184307993411199</v>
+        <v>0.6979648231422695</v>
       </c>
       <c r="I17" t="n" s="25">
-        <v>0.9843367009389025</v>
+        <v>0.9750195763274834</v>
       </c>
       <c r="J17" t="n" s="25">
-        <v>0.9999998031805021</v>
+        <v>0.9999971276276215</v>
       </c>
       <c r="K17" t="n" s="25">
-        <v>0.9055593881913568</v>
+        <v>0.8776124391008737</v>
       </c>
       <c r="L17" t="n" s="25">
-        <v>0.9996999104770308</v>
+        <v>0.9990049116934028</v>
       </c>
       <c r="M17" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999993445173293</v>
       </c>
       <c r="N17" t="n" s="25">
         <v>0.5</v>
@@ -1147,31 +1147,31 @@
         <v>16.0</v>
       </c>
       <c r="E18" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F18" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G18" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H18" t="n" s="25">
-        <v>0.7625001560855269</v>
+        <v>0.7391331680517135</v>
       </c>
       <c r="I18" t="n" s="25">
-        <v>0.9929939228122315</v>
+        <v>0.9875388164375846</v>
       </c>
       <c r="J18" t="n" s="25">
-        <v>0.9999999975079847</v>
+        <v>0.9999999378662926</v>
       </c>
       <c r="K18" t="n" s="25">
-        <v>0.9677265098713288</v>
+        <v>0.9502127123713918</v>
       </c>
       <c r="L18" t="n" s="25">
-        <v>0.9999910780012866</v>
+        <v>0.9999453086280694</v>
       </c>
       <c r="M18" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999803695</v>
       </c>
       <c r="N18" t="n" s="25">
         <v>0.5</v>
@@ -1182,31 +1182,31 @@
         <v>17.0</v>
       </c>
       <c r="E19" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F19" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G19" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H19" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I19" t="n" s="25">
-        <v>0.9891623086301198</v>
+        <v>0.9818614716871283</v>
       </c>
       <c r="J19" t="n" s="25">
-        <v>0.999999975108889</v>
+        <v>0.9999995415001934</v>
       </c>
       <c r="K19" t="n" s="25">
-        <v>0.9435584153097322</v>
+        <v>0.9203571137590745</v>
       </c>
       <c r="L19" t="n" s="25">
-        <v>0.9999464899149909</v>
+        <v>0.9997602436132975</v>
       </c>
       <c r="M19" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999968239953</v>
       </c>
       <c r="N19" t="n" s="25">
         <v>0.5</v>
@@ -1217,31 +1217,31 @@
         <v>18.0</v>
       </c>
       <c r="E20" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F20" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G20" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H20" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I20" t="n" s="25">
-        <v>0.9891623086301198</v>
+        <v>0.9818614716871283</v>
       </c>
       <c r="J20" t="n" s="25">
-        <v>0.999999975108889</v>
+        <v>0.9999995415001934</v>
       </c>
       <c r="K20" t="n" s="25">
-        <v>0.9170511145024015</v>
+        <v>0.8899169356367348</v>
       </c>
       <c r="L20" t="n" s="25">
-        <v>0.9998098787013193</v>
+        <v>0.999312776274957</v>
       </c>
       <c r="M20" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999998542785645</v>
       </c>
       <c r="N20" t="n" s="25">
         <v>0.5</v>
@@ -1252,31 +1252,31 @@
         <v>19.0</v>
       </c>
       <c r="E21" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F21" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G21" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H21" t="n" s="25">
-        <v>0.7625001560855269</v>
+        <v>0.7391331680517135</v>
       </c>
       <c r="I21" t="n" s="25">
-        <v>0.9929939228122315</v>
+        <v>0.9875388164375846</v>
       </c>
       <c r="J21" t="n" s="25">
-        <v>0.9999999975079847</v>
+        <v>0.9999999378662926</v>
       </c>
       <c r="K21" t="n" s="25">
-        <v>0.9792835245049312</v>
+        <v>0.9656586979662687</v>
       </c>
       <c r="L21" t="n" s="25">
-        <v>0.9999976899941972</v>
+        <v>0.9999817379470377</v>
       </c>
       <c r="M21" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999994041</v>
       </c>
       <c r="N21" t="n" s="25">
         <v>0.5</v>
@@ -1287,31 +1287,31 @@
         <v>20.0</v>
       </c>
       <c r="E22" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F22" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G22" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H22" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I22" t="n" s="25">
-        <v>0.9891623086301198</v>
+        <v>0.9818614716871283</v>
       </c>
       <c r="J22" t="n" s="25">
-        <v>0.999999975108889</v>
+        <v>0.9999995415001934</v>
       </c>
       <c r="K22" t="n" s="25">
-        <v>0.9457372695136343</v>
+        <v>0.9225442415347965</v>
       </c>
       <c r="L22" t="n" s="25">
-        <v>0.9999507688466364</v>
+        <v>0.9997704316825674</v>
       </c>
       <c r="M22" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999955767064</v>
       </c>
       <c r="N22" t="n" s="25">
         <v>0.5</v>
@@ -1322,31 +1322,31 @@
         <v>21.0</v>
       </c>
       <c r="E23" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F23" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G23" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H23" t="n" s="25">
-        <v>0.7625001560855269</v>
+        <v>0.7391331680517135</v>
       </c>
       <c r="I23" t="n" s="25">
-        <v>0.9929939228122315</v>
+        <v>0.9875388164375846</v>
       </c>
       <c r="J23" t="n" s="25">
-        <v>0.9999999975079847</v>
+        <v>0.9999999378662926</v>
       </c>
       <c r="K23" t="n" s="25">
-        <v>0.9500510776393242</v>
+        <v>0.9283350337103666</v>
       </c>
       <c r="L23" t="n" s="25">
-        <v>0.9999655409720395</v>
+        <v>0.9998362216550152</v>
       </c>
       <c r="M23" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999993532905</v>
       </c>
       <c r="N23" t="n" s="25">
         <v>0.5</v>
@@ -1357,31 +1357,31 @@
         <v>22.0</v>
       </c>
       <c r="E24" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F24" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G24" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H24" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I24" t="n" s="25">
-        <v>0.9891623086301198</v>
+        <v>0.9818614716871283</v>
       </c>
       <c r="J24" t="n" s="25">
-        <v>0.999999975108889</v>
+        <v>0.9999995415001934</v>
       </c>
       <c r="K24" t="n" s="25">
-        <v>0.9457372695136343</v>
+        <v>0.9225442415347965</v>
       </c>
       <c r="L24" t="n" s="25">
-        <v>0.9999507688466364</v>
+        <v>0.9997704316825674</v>
       </c>
       <c r="M24" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999955767064</v>
       </c>
       <c r="N24" t="n" s="25">
         <v>0.5</v>
@@ -1392,31 +1392,31 @@
         <v>23.0</v>
       </c>
       <c r="E25" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F25" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G25" t="n" s="25">
-        <v>0.9975838591692355</v>
+        <v>0.9945341691851166</v>
       </c>
       <c r="H25" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I25" t="n" s="25">
-        <v>0.9891623086301198</v>
+        <v>0.9818614716871283</v>
       </c>
       <c r="J25" t="n" s="25">
-        <v>0.9999997472852411</v>
+        <v>0.9999962434250149</v>
       </c>
       <c r="K25" t="n" s="25">
-        <v>0.9170511145024015</v>
+        <v>0.8899169356367348</v>
       </c>
       <c r="L25" t="n" s="25">
-        <v>0.9994569880174644</v>
+        <v>0.9980390064051913</v>
       </c>
       <c r="M25" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999965887911014</v>
       </c>
       <c r="N25" t="n" s="25">
         <v>0.5</v>
@@ -1427,31 +1427,31 @@
         <v>24.0</v>
       </c>
       <c r="E26" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F26" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G26" t="n" s="25">
-        <v>0.4523365844475757</v>
+        <v>0.35667911942365665</v>
       </c>
       <c r="H26" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I26" t="n" s="25">
-        <v>0.7758664420335202</v>
+        <v>0.6924481359966784</v>
       </c>
       <c r="J26" t="n" s="25">
-        <v>0.25466822245459375</v>
+        <v>0.07495560622506757</v>
       </c>
       <c r="K26" t="n" s="25">
-        <v>0.7772172317914372</v>
+        <v>0.7512481378283578</v>
       </c>
       <c r="L26" t="n" s="25">
-        <v>0.07359778574801751</v>
+        <v>0.04002946497728428</v>
       </c>
       <c r="M26" t="n" s="25">
-        <v>1.0</v>
+        <v>2.112984338243597E-6</v>
       </c>
       <c r="N26" t="n" s="25">
         <v>0.5</v>
@@ -1462,31 +1462,31 @@
         <v>25.0</v>
       </c>
       <c r="E27" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F27" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G27" t="n" s="25">
-        <v>0.6731331885944516</v>
+        <v>0.6316741920715346</v>
       </c>
       <c r="H27" t="n" s="25">
-        <v>0.7437885845917195</v>
+        <v>0.7214784058872852</v>
       </c>
       <c r="I27" t="n" s="25">
-        <v>0.9750222561682969</v>
+        <v>0.9580836746346049</v>
       </c>
       <c r="J27" t="n" s="25">
-        <v>0.007775778828255658</v>
+        <v>0.0038075723667206716</v>
       </c>
       <c r="K27" t="n" s="25">
-        <v>0.8782681172443508</v>
+        <v>0.8490126283500958</v>
       </c>
       <c r="L27" t="n" s="25">
-        <v>0.16602324857305034</v>
+        <v>0.06549690687424894</v>
       </c>
       <c r="M27" t="n" s="25">
-        <v>3.516983953556202E-9</v>
+        <v>1.0313531801675234E-9</v>
       </c>
       <c r="N27" t="n" s="25">
         <v>0.5</v>
@@ -1497,31 +1497,31 @@
         <v>26.0</v>
       </c>
       <c r="E28" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F28" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G28" t="n" s="25">
-        <v>0.9975838591692355</v>
+        <v>0.9945341691851166</v>
       </c>
       <c r="H28" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555409</v>
       </c>
       <c r="I28" t="n" s="25">
-        <v>0.9774115022152837</v>
+        <v>0.9656870919583598</v>
       </c>
       <c r="J28" t="n" s="25">
-        <v>0.9999841994691071</v>
+        <v>0.9998525872883741</v>
       </c>
       <c r="K28" t="n" s="25">
-        <v>0.9003908496322294</v>
+        <v>0.8710832297949047</v>
       </c>
       <c r="L28" t="n" s="25">
-        <v>0.9988553082026297</v>
+        <v>0.9962350453745893</v>
       </c>
       <c r="M28" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9998661381186057</v>
       </c>
       <c r="N28" t="n" s="25">
         <v>0.5</v>
@@ -1532,31 +1532,31 @@
         <v>27.0</v>
       </c>
       <c r="E29" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F29" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G29" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H29" t="n" s="25">
-        <v>0.6535420831532384</v>
+        <v>0.6384496787841895</v>
       </c>
       <c r="I29" t="n" s="25">
-        <v>0.9535185431041948</v>
+        <v>0.9360294776142906</v>
       </c>
       <c r="J29" t="n" s="25">
-        <v>0.9999027033951088</v>
+        <v>0.9992942623565831</v>
       </c>
       <c r="K29" t="n" s="25">
-        <v>0.7322776138355422</v>
+        <v>0.7095519454669365</v>
       </c>
       <c r="L29" t="n" s="25">
-        <v>0.9852782658365227</v>
+        <v>0.975467560176834</v>
       </c>
       <c r="M29" t="n" s="25">
-        <v>1.0</v>
+        <v>0.8917681441044742</v>
       </c>
       <c r="N29" t="n" s="25">
         <v>0.5</v>
@@ -1567,31 +1567,31 @@
         <v>28.0</v>
       </c>
       <c r="E30" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F30" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G30" t="n" s="25">
-        <v>0.11579964633238779</v>
+        <v>0.08670301657150492</v>
       </c>
       <c r="H30" t="n" s="25">
-        <v>0.6535420831532384</v>
+        <v>0.6384496787841895</v>
       </c>
       <c r="I30" t="n" s="25">
-        <v>0.34432991011465036</v>
+        <v>0.27250734242986996</v>
       </c>
       <c r="J30" t="n" s="25">
-        <v>2.025778859220079E-5</v>
+        <v>8.942892984332604E-6</v>
       </c>
       <c r="K30" t="n" s="25">
-        <v>0.6535420831532384</v>
+        <v>0.6384496787841895</v>
       </c>
       <c r="L30" t="n" s="25">
-        <v>1.0386063624312581E-4</v>
+        <v>7.408394985509008E-5</v>
       </c>
       <c r="M30" t="n" s="25">
-        <v>3.526064199266244E-13</v>
+        <v>1.5565794779715726E-13</v>
       </c>
       <c r="N30" t="n" s="25">
         <v>0.5</v>
@@ -1602,31 +1602,31 @@
         <v>29.0</v>
       </c>
       <c r="E31" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F31" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G31" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H31" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I31" t="n" s="25">
-        <v>0.9891623086301198</v>
+        <v>0.9818614716871283</v>
       </c>
       <c r="J31" t="n" s="25">
-        <v>0.999999975108889</v>
+        <v>0.9999995415001934</v>
       </c>
       <c r="K31" t="n" s="25">
-        <v>0.9634429991295165</v>
+        <v>0.9445247305406104</v>
       </c>
       <c r="L31" t="n" s="25">
-        <v>0.9999861451794039</v>
+        <v>0.9999199328248084</v>
       </c>
       <c r="M31" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999035941</v>
       </c>
       <c r="N31" t="n" s="25">
         <v>0.5</v>
@@ -1637,31 +1637,31 @@
         <v>30.0</v>
       </c>
       <c r="E32" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F32" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G32" t="n" s="25">
-        <v>0.038331188404267066</v>
+        <v>0.030425149221291893</v>
       </c>
       <c r="H32" t="n" s="25">
-        <v>0.6535420831532384</v>
+        <v>0.6384496787841895</v>
       </c>
       <c r="I32" t="n" s="25">
-        <v>0.20797012171579074</v>
+        <v>0.15774732311347445</v>
       </c>
       <c r="J32" t="n" s="25">
-        <v>3.082759906335772E-6</v>
+        <v>1.4780205432140492E-6</v>
       </c>
       <c r="K32" t="n" s="25">
-        <v>0.6535420831532384</v>
+        <v>0.6384496787841895</v>
       </c>
       <c r="L32" t="n" s="25">
-        <v>5.193301501955388E-5</v>
+        <v>3.704334708627904E-5</v>
       </c>
       <c r="M32" t="n" s="25">
-        <v>5.3657498684502355E-14</v>
+        <v>2.5725895138027225E-14</v>
       </c>
       <c r="N32" t="n" s="25">
         <v>0.5</v>
@@ -1672,31 +1672,31 @@
         <v>31.0</v>
       </c>
       <c r="E33" t="n" s="25">
-        <v>0.039678254463334124</v>
+        <v>0.039149593983993466</v>
       </c>
       <c r="F33" t="n" s="25">
-        <v>0.0014747307039646308</v>
+        <v>0.0013619626294492982</v>
       </c>
       <c r="G33" t="n" s="25">
-        <v>6.85238700015706E-5</v>
+        <v>6.037242874321304E-5</v>
       </c>
       <c r="H33" t="n" s="25">
-        <v>0.004202007898347813</v>
+        <v>0.0038815040804911533</v>
       </c>
       <c r="I33" t="n" s="25">
-        <v>7.936804694460451E-5</v>
+        <v>5.4614462960230206E-5</v>
       </c>
       <c r="J33" t="n" s="25">
-        <v>1.2748024905172816E-9</v>
+        <v>7.306444107876416E-10</v>
       </c>
       <c r="K33" t="n" s="25">
-        <v>4.2556568770433346E-4</v>
+        <v>3.672941437114869E-4</v>
       </c>
       <c r="L33" t="n" s="25">
-        <v>3.0183829211240337E-9</v>
+        <v>1.6104922630603406E-9</v>
       </c>
       <c r="M33" t="n" s="25">
-        <v>4.26598916568574E-18</v>
+        <v>1.8959024835661338E-18</v>
       </c>
       <c r="N33" t="n" s="25">
         <v>0.5</v>
@@ -1707,31 +1707,31 @@
         <v>32.0</v>
       </c>
       <c r="E34" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F34" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G34" t="n" s="25">
-        <v>0.14144519184682972</v>
+        <v>0.12064643636624212</v>
       </c>
       <c r="H34" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I34" t="n" s="25">
-        <v>0.7758664420335202</v>
+        <v>0.6924481359966784</v>
       </c>
       <c r="J34" t="n" s="25">
-        <v>5.559281662824413E-5</v>
+        <v>3.0118302190083983E-5</v>
       </c>
       <c r="K34" t="n" s="25">
-        <v>0.7843498649815573</v>
+        <v>0.7568523876827601</v>
       </c>
       <c r="L34" t="n" s="25">
-        <v>0.0020525887150721683</v>
+        <v>0.0010362532298932405</v>
       </c>
       <c r="M34" t="n" s="25">
-        <v>2.906964264085434E-12</v>
+        <v>1.2211626751590581E-12</v>
       </c>
       <c r="N34" t="n" s="25">
         <v>0.5</v>
@@ -1742,31 +1742,31 @@
         <v>33.0</v>
       </c>
       <c r="E35" t="n" s="25">
-        <v>0.0035404085907283465</v>
+        <v>0.003507676481610892</v>
       </c>
       <c r="F35" t="n" s="25">
-        <v>4.019171841066745E-5</v>
+        <v>3.77001853026844E-5</v>
       </c>
       <c r="G35" t="n" s="25">
-        <v>1.1280234240772046E-6</v>
+        <v>9.543499109939992E-7</v>
       </c>
       <c r="H35" t="n" s="25">
-        <v>1.148249104396113E-4</v>
+        <v>1.0770727406560125E-4</v>
       </c>
       <c r="I35" t="n" s="25">
-        <v>4.9381322994444534E-8</v>
+        <v>3.717995184158112E-8</v>
       </c>
       <c r="J35" t="n" s="25">
-        <v>2.1586617353256406E-13</v>
+        <v>1.2797833209279922E-13</v>
       </c>
       <c r="K35" t="n" s="25">
-        <v>8.819558049151147E-7</v>
+        <v>8.272802846086402E-7</v>
       </c>
       <c r="L35" t="n" s="25">
-        <v>7.501198760424616E-14</v>
+        <v>5.6477669764984654E-14</v>
       </c>
       <c r="M35" t="n" s="25">
-        <v>7.213984497320705E-23</v>
+        <v>4.276879923343166E-23</v>
       </c>
       <c r="N35" t="n" s="25">
         <v>0.5</v>
@@ -1777,31 +1777,31 @@
         <v>34.0</v>
       </c>
       <c r="E36" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F36" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G36" t="n" s="25">
-        <v>0.14144519184682972</v>
+        <v>0.12064643636624212</v>
       </c>
       <c r="H36" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I36" t="n" s="25">
-        <v>0.7758664420335202</v>
+        <v>0.6924481359966784</v>
       </c>
       <c r="J36" t="n" s="25">
-        <v>2.501753242001063E-5</v>
+        <v>1.3553460499508259E-5</v>
       </c>
       <c r="K36" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555407</v>
       </c>
       <c r="L36" t="n" s="25">
-        <v>2.3958011934140872E-4</v>
+        <v>1.5583892965279837E-4</v>
       </c>
       <c r="M36" t="n" s="25">
-        <v>1.5240975447976956E-13</v>
+        <v>8.256833131987449E-14</v>
       </c>
       <c r="N36" t="n" s="25">
         <v>0.5</v>
@@ -1812,31 +1812,31 @@
         <v>35.0</v>
       </c>
       <c r="E37" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F37" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G37" t="n" s="25">
-        <v>0.14144519184682972</v>
+        <v>0.12064643636624212</v>
       </c>
       <c r="H37" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I37" t="n" s="25">
-        <v>0.7758664420335202</v>
+        <v>0.6924481359966784</v>
       </c>
       <c r="J37" t="n" s="25">
-        <v>5.559281662824413E-5</v>
+        <v>3.0118302190083983E-5</v>
       </c>
       <c r="K37" t="n" s="25">
-        <v>0.7843498649815573</v>
+        <v>0.7568523876827601</v>
       </c>
       <c r="L37" t="n" s="25">
-        <v>0.0020525887150721683</v>
+        <v>0.0010362532298932405</v>
       </c>
       <c r="M37" t="n" s="25">
-        <v>2.906964264085434E-12</v>
+        <v>1.2211626751590581E-12</v>
       </c>
       <c r="N37" t="n" s="25">
         <v>0.5</v>
@@ -1847,31 +1847,31 @@
         <v>36.0</v>
       </c>
       <c r="E38" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F38" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G38" t="n" s="25">
-        <v>0.5220854709107473</v>
+        <v>0.43684510592541115</v>
       </c>
       <c r="H38" t="n" s="25">
-        <v>0.7241361600914255</v>
+        <v>0.7031087489998987</v>
       </c>
       <c r="I38" t="n" s="25">
-        <v>0.9149012376131825</v>
+        <v>0.8682898797340193</v>
       </c>
       <c r="J38" t="n" s="25">
-        <v>0.7468025685879955</v>
+        <v>0.44968715780472746</v>
       </c>
       <c r="K38" t="n" s="25">
-        <v>0.9079587881988068</v>
+        <v>0.8802218597886273</v>
       </c>
       <c r="L38" t="n" s="25">
-        <v>0.9478533731185964</v>
+        <v>0.8439471794792776</v>
       </c>
       <c r="M38" t="n" s="25">
-        <v>4.3863431989806927E-4</v>
+        <v>5.8986950108905905E-5</v>
       </c>
       <c r="N38" t="n" s="25">
         <v>0.5</v>
@@ -1882,31 +1882,31 @@
         <v>37.0</v>
       </c>
       <c r="E39" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F39" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G39" t="n" s="25">
-        <v>0.14144519184682972</v>
+        <v>0.12064643636624212</v>
       </c>
       <c r="H39" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I39" t="n" s="25">
-        <v>0.7758664420335202</v>
+        <v>0.6924481359966784</v>
       </c>
       <c r="J39" t="n" s="25">
-        <v>5.559281662824413E-5</v>
+        <v>3.0118302190083976E-5</v>
       </c>
       <c r="K39" t="n" s="25">
-        <v>0.7843498649815572</v>
+        <v>0.7568523876827601</v>
       </c>
       <c r="L39" t="n" s="25">
-        <v>0.0020525887150721683</v>
+        <v>0.0010362532298932405</v>
       </c>
       <c r="M39" t="n" s="25">
-        <v>2.906964264085434E-12</v>
+        <v>1.2211626751590581E-12</v>
       </c>
       <c r="N39" t="n" s="25">
         <v>0.5</v>
@@ -1917,31 +1917,31 @@
         <v>38.0</v>
       </c>
       <c r="E40" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F40" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G40" t="n" s="25">
-        <v>0.0470966764601241</v>
+        <v>0.03953255415538447</v>
       </c>
       <c r="H40" t="n" s="25">
-        <v>0.6813349620573783</v>
+        <v>0.6637198982834278</v>
       </c>
       <c r="I40" t="n" s="25">
-        <v>0.4320684943951522</v>
+        <v>0.3391026586947793</v>
       </c>
       <c r="J40" t="n" s="25">
-        <v>3.6655490948355958E-6</v>
+        <v>2.0591701326065084E-6</v>
       </c>
       <c r="K40" t="n" s="25">
-        <v>0.771200458684</v>
+        <v>0.7441119164881079</v>
       </c>
       <c r="L40" t="n" s="25">
-        <v>4.5182948143846424E-4</v>
+        <v>2.363424962832377E-4</v>
       </c>
       <c r="M40" t="n" s="25">
-        <v>1.9166265632748829E-13</v>
+        <v>8.348781198717857E-14</v>
       </c>
       <c r="N40" t="n" s="25">
         <v>0.5</v>
@@ -1952,31 +1952,31 @@
         <v>39.0</v>
       </c>
       <c r="E41" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F41" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G41" t="n" s="25">
-        <v>0.987089463711215</v>
+        <v>0.9753732686374479</v>
       </c>
       <c r="H41" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I41" t="n" s="25">
-        <v>0.9785570097703955</v>
+        <v>0.9643692330493995</v>
       </c>
       <c r="J41" t="n" s="25">
-        <v>0.9999975599038587</v>
+        <v>0.9999751171891885</v>
       </c>
       <c r="K41" t="n" s="25">
-        <v>0.9648828038515443</v>
+        <v>0.946087052304166</v>
       </c>
       <c r="L41" t="n" s="25">
-        <v>0.9999745065648808</v>
+        <v>0.9998466831007474</v>
       </c>
       <c r="M41" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999991182937356</v>
       </c>
       <c r="N41" t="n" s="25">
         <v>0.5</v>
@@ -1987,31 +1987,31 @@
         <v>40.0</v>
       </c>
       <c r="E42" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F42" t="n" s="25">
-        <v>0.07611934489854862</v>
+        <v>0.06899825080071832</v>
       </c>
       <c r="G42" t="n" s="25">
-        <v>0.005905568527136846</v>
+        <v>0.004368081871252299</v>
       </c>
       <c r="H42" t="n" s="25">
-        <v>0.17549969607408356</v>
+        <v>0.16219051408888424</v>
       </c>
       <c r="I42" t="n" s="25">
-        <v>5.350270222148555E-4</v>
+        <v>3.795228735523374E-4</v>
       </c>
       <c r="J42" t="n" s="25">
-        <v>6.012018564990667E-9</v>
+        <v>3.0562339681872986E-9</v>
       </c>
       <c r="K42" t="n" s="25">
-        <v>0.004070197711493424</v>
+        <v>0.003703140307503699</v>
       </c>
       <c r="L42" t="n" s="25">
-        <v>1.581144667917827E-9</v>
+        <v>1.1214147936224313E-9</v>
       </c>
       <c r="M42" t="n" s="25">
-        <v>3.1253341203135063E-18</v>
+        <v>1.5887762436107575E-18</v>
       </c>
       <c r="N42" t="n" s="25">
         <v>0.5</v>
@@ -2022,31 +2022,31 @@
         <v>41.0</v>
       </c>
       <c r="E43" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F43" t="n" s="25">
-        <v>0.7625001560855269</v>
+        <v>0.7391331680517134</v>
       </c>
       <c r="G43" t="n" s="25">
-        <v>0.22954663916408993</v>
+        <v>0.20055378186243725</v>
       </c>
       <c r="H43" t="n" s="25">
-        <v>0.7241361600914255</v>
+        <v>0.7031087489998987</v>
       </c>
       <c r="I43" t="n" s="25">
-        <v>0.8809883354411836</v>
+        <v>0.8261919120403091</v>
       </c>
       <c r="J43" t="n" s="25">
-        <v>2.3772240235030167E-4</v>
+        <v>1.271628939792428E-4</v>
       </c>
       <c r="K43" t="n" s="25">
-        <v>0.8053792629823459</v>
+        <v>0.777244663753189</v>
       </c>
       <c r="L43" t="n" s="25">
-        <v>8.072174556096249E-4</v>
+        <v>4.845958982782711E-4</v>
       </c>
       <c r="M43" t="n" s="25">
-        <v>2.2835822782669906E-12</v>
+        <v>1.141504400050187E-12</v>
       </c>
       <c r="N43" t="n" s="25">
         <v>0.5</v>
@@ -2057,31 +2057,31 @@
         <v>42.0</v>
       </c>
       <c r="E44" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F44" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G44" t="n" s="25">
-        <v>0.19943573223561997</v>
+        <v>0.1639664829069663</v>
       </c>
       <c r="H44" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I44" t="n" s="25">
-        <v>0.7758664420335202</v>
+        <v>0.6924481359966784</v>
       </c>
       <c r="J44" t="n" s="25">
-        <v>5.641364688246358E-4</v>
+        <v>2.4671226792584357E-4</v>
       </c>
       <c r="K44" t="n" s="25">
-        <v>0.7843498649815573</v>
+        <v>0.7568523876827601</v>
       </c>
       <c r="L44" t="n" s="25">
-        <v>0.005842268746820216</v>
+        <v>0.0029550366337905676</v>
       </c>
       <c r="M44" t="n" s="25">
-        <v>8.432533442182413E-11</v>
+        <v>2.858642294841189E-11</v>
       </c>
       <c r="N44" t="n" s="25">
         <v>0.5</v>
@@ -2092,31 +2092,31 @@
         <v>43.0</v>
       </c>
       <c r="E45" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F45" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G45" t="n" s="25">
-        <v>0.29171949888846443</v>
+        <v>0.2553969864964028</v>
       </c>
       <c r="H45" t="n" s="25">
-        <v>0.7184307993411199</v>
+        <v>0.6979648231422695</v>
       </c>
       <c r="I45" t="n" s="25">
-        <v>0.926300983630151</v>
+        <v>0.8864445360378337</v>
       </c>
       <c r="J45" t="n" s="25">
-        <v>5.043988285823241E-4</v>
+        <v>2.610026117004647E-4</v>
       </c>
       <c r="K45" t="n" s="25">
-        <v>0.8008921547727067</v>
+        <v>0.7729704643271079</v>
       </c>
       <c r="L45" t="n" s="25">
-        <v>0.007412647851846553</v>
+        <v>0.003583699923142026</v>
       </c>
       <c r="M45" t="n" s="25">
-        <v>2.6387002153823993E-11</v>
+        <v>1.0584934492870696E-11</v>
       </c>
       <c r="N45" t="n" s="25">
         <v>0.5</v>
@@ -2127,31 +2127,31 @@
         <v>45.0</v>
       </c>
       <c r="E46" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F46" t="n" s="25">
-        <v>0.0019951618398345106</v>
+        <v>0.0018581310819594428</v>
       </c>
       <c r="G46" t="n" s="25">
-        <v>4.356774297680187E-8</v>
+        <v>3.7915982446320044E-8</v>
       </c>
       <c r="H46" t="n" s="25">
-        <v>0.004282433334498792</v>
+        <v>0.004109410867834451</v>
       </c>
       <c r="I46" t="n" s="25">
-        <v>1.2074172852465738E-10</v>
+        <v>1.0724029992757799E-10</v>
       </c>
       <c r="J46" t="n" s="25">
-        <v>4.5539866204661496E-20</v>
+        <v>3.7801674552629146E-20</v>
       </c>
       <c r="K46" t="n" s="25">
-        <v>8.808066174782594E-6</v>
+        <v>8.450729856475053E-6</v>
       </c>
       <c r="L46" t="n" s="25">
-        <v>9.510198703755857E-18</v>
+        <v>8.446761312843021E-18</v>
       </c>
       <c r="M46" t="n" s="25">
-        <v>6.31301207915181E-31</v>
+        <v>5.240297083667884E-31</v>
       </c>
       <c r="N46" t="n" s="25">
         <v>0.5</v>
@@ -2162,31 +2162,31 @@
         <v>46.0</v>
       </c>
       <c r="E47" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F47" t="n" s="25">
-        <v>0.12601828683397137</v>
+        <v>0.11457418790916793</v>
       </c>
       <c r="G47" t="n" s="25">
-        <v>0.002452431442590314</v>
+        <v>0.0016900524071852753</v>
       </c>
       <c r="H47" t="n" s="25">
-        <v>0.2613426456837026</v>
+        <v>0.24395437584401347</v>
       </c>
       <c r="I47" t="n" s="25">
-        <v>4.608149211290607E-5</v>
+        <v>3.563466157691196E-5</v>
       </c>
       <c r="J47" t="n" s="25">
-        <v>2.7197146537842743E-10</v>
+        <v>1.4088189289961957E-10</v>
       </c>
       <c r="K47" t="n" s="25">
-        <v>0.007088812730013546</v>
+        <v>0.00604839779243785</v>
       </c>
       <c r="L47" t="n" s="25">
-        <v>3.1790116246878837E-10</v>
+        <v>2.2974831868379165E-10</v>
       </c>
       <c r="M47" t="n" s="25">
-        <v>6.60406857984697E-19</v>
+        <v>3.1971430535478427E-19</v>
       </c>
       <c r="N47" t="n" s="25">
         <v>0.5</v>
@@ -2197,31 +2197,31 @@
         <v>47.0</v>
       </c>
       <c r="E48" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F48" t="n" s="25">
-        <v>0.042616408411476014</v>
+        <v>0.03916534457088507</v>
       </c>
       <c r="G48" t="n" s="25">
-        <v>0.005106895984423428</v>
+        <v>0.0039018651906915515</v>
       </c>
       <c r="H48" t="n" s="25">
-        <v>0.11283117110405935</v>
+        <v>0.10431366342677284</v>
       </c>
       <c r="I48" t="n" s="25">
-        <v>2.2189700319354827E-4</v>
+        <v>1.6243756752141986E-4</v>
       </c>
       <c r="J48" t="n" s="25">
-        <v>3.986527951367259E-9</v>
+        <v>2.1230160706639014E-9</v>
       </c>
       <c r="K48" t="n" s="25">
-        <v>0.001300641326644288</v>
+        <v>0.0011911531008555567</v>
       </c>
       <c r="L48" t="n" s="25">
-        <v>7.769579234368088E-10</v>
+        <v>5.687307531611141E-10</v>
       </c>
       <c r="M48" t="n" s="25">
-        <v>4.912325799325575E-18</v>
+        <v>2.6160475291020657E-18</v>
       </c>
       <c r="N48" t="n" s="25">
         <v>0.5</v>
@@ -2232,31 +2232,31 @@
         <v>49.0</v>
       </c>
       <c r="E49" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F49" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G49" t="n" s="25">
-        <v>0.025682693208646603</v>
+        <v>0.021480308904558855</v>
       </c>
       <c r="H49" t="n" s="25">
-        <v>0.6535420831532384</v>
+        <v>0.6384496787841895</v>
       </c>
       <c r="I49" t="n" s="25">
-        <v>0.20797012171579074</v>
+        <v>0.15774732311347445</v>
       </c>
       <c r="J49" t="n" s="25">
-        <v>3.0363685559712203E-7</v>
+        <v>1.8039591390138914E-7</v>
       </c>
       <c r="K49" t="n" s="25">
-        <v>0.6535420831532384</v>
+        <v>0.6384496787841895</v>
       </c>
       <c r="L49" t="n" s="25">
-        <v>1.817716885371286E-5</v>
+        <v>1.296548366539017E-5</v>
       </c>
       <c r="M49" t="n" s="25">
-        <v>1.8497457760807743E-15</v>
+        <v>1.0989658616417086E-15</v>
       </c>
       <c r="N49" t="n" s="25">
         <v>0.5</v>
@@ -2267,31 +2267,31 @@
         <v>50.0</v>
       </c>
       <c r="E50" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F50" t="n" s="25">
-        <v>0.12330904215092528</v>
+        <v>0.11299302741546127</v>
       </c>
       <c r="G50" t="n" s="25">
-        <v>3.131638245135794E-4</v>
+        <v>2.706176294100406E-4</v>
       </c>
       <c r="H50" t="n" s="25">
-        <v>0.2158900509427891</v>
+        <v>0.2062406825159549</v>
       </c>
       <c r="I50" t="n" s="25">
-        <v>3.599203213591052E-4</v>
+        <v>2.7624211706159875E-4</v>
       </c>
       <c r="J50" t="n" s="25">
-        <v>1.2490482015885153E-10</v>
+        <v>7.984326933716408E-11</v>
       </c>
       <c r="K50" t="n" s="25">
-        <v>0.0421942328104327</v>
+        <v>0.03991315006330343</v>
       </c>
       <c r="L50" t="n" s="25">
-        <v>3.988021062462632E-9</v>
+        <v>3.060586208891316E-9</v>
       </c>
       <c r="M50" t="n" s="25">
-        <v>1.2174653458193524E-19</v>
+        <v>7.782438931252839E-20</v>
       </c>
       <c r="N50" t="n" s="25">
         <v>0.5</v>
@@ -2302,31 +2302,31 @@
         <v>51.0</v>
       </c>
       <c r="E51" t="n" s="25">
-        <v>0.26749358913007576</v>
+        <v>0.2635879805761441</v>
       </c>
       <c r="F51" t="n" s="25">
-        <v>5.858951553397931E-4</v>
+        <v>5.468693104225248E-4</v>
       </c>
       <c r="G51" t="n" s="25">
-        <v>1.793522818521682E-5</v>
+        <v>1.192174769903803E-5</v>
       </c>
       <c r="H51" t="n" s="25">
-        <v>0.0016721666885847076</v>
+        <v>0.0015608984730456825</v>
       </c>
       <c r="I51" t="n" s="25">
-        <v>1.1151514477103151E-11</v>
+        <v>9.911158912882244E-12</v>
       </c>
       <c r="J51" t="n" s="25">
-        <v>5.9045782078909935E-18</v>
+        <v>3.737344982251369E-18</v>
       </c>
       <c r="K51" t="n" s="25">
-        <v>5.557140186592452E-9</v>
+        <v>5.1867825320055474E-9</v>
       </c>
       <c r="L51" t="n" s="25">
-        <v>3.792878083387049E-19</v>
+        <v>3.3710055704788804E-19</v>
       </c>
       <c r="M51" t="n" s="25">
-        <v>4.602304589490372E-27</v>
+        <v>2.9130615869118875E-27</v>
       </c>
       <c r="N51" t="n" s="25">
         <v>0.5</v>
@@ -2337,31 +2337,31 @@
         <v>52.0</v>
       </c>
       <c r="E52" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F52" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G52" t="n" s="25">
-        <v>0.1164504239898413</v>
+        <v>0.09890362302533713</v>
       </c>
       <c r="H52" t="n" s="25">
-        <v>0.7035770704299014</v>
+        <v>0.6840580878632355</v>
       </c>
       <c r="I52" t="n" s="25">
-        <v>0.7475394619127298</v>
+        <v>0.6553374803883723</v>
       </c>
       <c r="J52" t="n" s="25">
-        <v>1.711978970421533E-5</v>
+        <v>9.156808935574022E-6</v>
       </c>
       <c r="K52" t="n" s="25">
-        <v>0.7035770704299014</v>
+        <v>0.6840580878632355</v>
       </c>
       <c r="L52" t="n" s="25">
-        <v>2.0493982530717165E-4</v>
+        <v>1.316098948812054E-4</v>
       </c>
       <c r="M52" t="n" s="25">
-        <v>1.0429495181361522E-13</v>
+        <v>5.5783473886923014E-14</v>
       </c>
       <c r="N52" t="n" s="25">
         <v>0.5</v>
@@ -2372,31 +2372,31 @@
         <v>53.0</v>
       </c>
       <c r="E53" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F53" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G53" t="n" s="25">
-        <v>0.9787635725706364</v>
+        <v>0.965327466752811</v>
       </c>
       <c r="H53" t="n" s="25">
-        <v>0.7625001560855269</v>
+        <v>0.7391331680517135</v>
       </c>
       <c r="I53" t="n" s="25">
-        <v>0.9773604462669845</v>
+        <v>0.961540129775299</v>
       </c>
       <c r="J53" t="n" s="25">
-        <v>0.9975696500496561</v>
+        <v>0.9858336063568591</v>
       </c>
       <c r="K53" t="n" s="25">
-        <v>0.8342027255754628</v>
+        <v>0.7837718422685791</v>
       </c>
       <c r="L53" t="n" s="25">
-        <v>0.950486183618267</v>
+        <v>0.8382693834130982</v>
       </c>
       <c r="M53" t="n" s="25">
-        <v>1.0</v>
+        <v>0.018249147382805763</v>
       </c>
       <c r="N53" t="n" s="25">
         <v>0.5</v>
@@ -2407,31 +2407,31 @@
         <v>54.0</v>
       </c>
       <c r="E54" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F54" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G54" t="n" s="25">
-        <v>0.9760132270002587</v>
+        <v>0.9623029615477523</v>
       </c>
       <c r="H54" t="n" s="25">
-        <v>0.7625001560855269</v>
+        <v>0.7391331680517135</v>
       </c>
       <c r="I54" t="n" s="25">
-        <v>0.9929939228122315</v>
+        <v>0.9875388164375846</v>
       </c>
       <c r="J54" t="n" s="25">
-        <v>0.9998800903154479</v>
+        <v>0.9992419583187659</v>
       </c>
       <c r="K54" t="n" s="25">
-        <v>0.9500510776393241</v>
+        <v>0.9283350337103666</v>
       </c>
       <c r="L54" t="n" s="25">
-        <v>0.9995140251340036</v>
+        <v>0.9976941451601457</v>
       </c>
       <c r="M54" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9911084457409042</v>
       </c>
       <c r="N54" t="n" s="25">
         <v>0.5</v>
@@ -2442,31 +2442,31 @@
         <v>55.0</v>
       </c>
       <c r="E55" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F55" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G55" t="n" s="25">
-        <v>0.788698407047535</v>
+        <v>0.7478383950288701</v>
       </c>
       <c r="H55" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I55" t="n" s="25">
-        <v>0.9785570097703955</v>
+        <v>0.9643692330493995</v>
       </c>
       <c r="J55" t="n" s="25">
-        <v>0.2493110688502012</v>
+        <v>0.12022491488017113</v>
       </c>
       <c r="K55" t="n" s="25">
-        <v>0.9170511145024015</v>
+        <v>0.8899169356367348</v>
       </c>
       <c r="L55" t="n" s="25">
-        <v>0.8887669067242095</v>
+        <v>0.6884133812002506</v>
       </c>
       <c r="M55" t="n" s="25">
-        <v>5.116995961493713E-6</v>
+        <v>9.816516357342476E-7</v>
       </c>
       <c r="N55" t="n" s="25">
         <v>0.5</v>
@@ -2477,31 +2477,31 @@
         <v>56.0</v>
       </c>
       <c r="E56" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F56" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G56" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H56" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I56" t="n" s="25">
-        <v>0.9891623086301198</v>
+        <v>0.9818614716871283</v>
       </c>
       <c r="J56" t="n" s="25">
-        <v>0.999999975108889</v>
+        <v>0.9999995415001934</v>
       </c>
       <c r="K56" t="n" s="25">
-        <v>0.9435584153097322</v>
+        <v>0.9203571137590745</v>
       </c>
       <c r="L56" t="n" s="25">
-        <v>0.9999464899149909</v>
+        <v>0.9997602436132975</v>
       </c>
       <c r="M56" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999968239953</v>
       </c>
       <c r="N56" t="n" s="25">
         <v>0.5</v>
@@ -2512,31 +2512,31 @@
         <v>57.0</v>
       </c>
       <c r="E57" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F57" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G57" t="n" s="25">
-        <v>0.8722477733408236</v>
+        <v>0.8290069227895633</v>
       </c>
       <c r="H57" t="n" s="25">
-        <v>0.7437885845917195</v>
+        <v>0.7214784058872852</v>
       </c>
       <c r="I57" t="n" s="25">
-        <v>0.9750222561682969</v>
+        <v>0.9580836746346049</v>
       </c>
       <c r="J57" t="n" s="25">
-        <v>0.8259004147069132</v>
+        <v>0.5565437734187666</v>
       </c>
       <c r="K57" t="n" s="25">
-        <v>0.8206772166210193</v>
+        <v>0.792381771441166</v>
       </c>
       <c r="L57" t="n" s="25">
-        <v>0.43096296785408494</v>
+        <v>0.2558791484964105</v>
       </c>
       <c r="M57" t="n" s="25">
-        <v>8.09929472966707E-6</v>
+        <v>1.6615052077175435E-6</v>
       </c>
       <c r="N57" t="n" s="25">
         <v>0.5</v>
@@ -2547,31 +2547,31 @@
         <v>58.0</v>
       </c>
       <c r="E58" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F58" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G58" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H58" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I58" t="n" s="25">
-        <v>0.9774115022152837</v>
+        <v>0.9656870919583598</v>
       </c>
       <c r="J58" t="n" s="25">
-        <v>0.999998443706721</v>
+        <v>0.9999820056233123</v>
       </c>
       <c r="K58" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555407</v>
       </c>
       <c r="L58" t="n" s="25">
-        <v>0.9774115022152837</v>
+        <v>0.9656870919583597</v>
       </c>
       <c r="M58" t="n" s="25">
-        <v>0.9826221519217031</v>
+        <v>0.8302301869083947</v>
       </c>
       <c r="N58" t="n" s="25">
         <v>0.5</v>
@@ -2582,31 +2582,31 @@
         <v>59.0</v>
       </c>
       <c r="E59" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F59" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G59" t="n" s="25">
-        <v>0.9417690157076333</v>
+        <v>0.8982885058019561</v>
       </c>
       <c r="H59" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I59" t="n" s="25">
-        <v>0.8737891810659885</v>
+        <v>0.8182798884869786</v>
       </c>
       <c r="J59" t="n" s="25">
-        <v>0.9979598491415747</v>
+        <v>0.9852585237924594</v>
       </c>
       <c r="K59" t="n" s="25">
-        <v>0.7843498649815571</v>
+        <v>0.7568523876827602</v>
       </c>
       <c r="L59" t="n" s="25">
-        <v>0.7090220096317869</v>
+        <v>0.5513510016546715</v>
       </c>
       <c r="M59" t="n" s="25">
-        <v>0.014924252348379016</v>
+        <v>0.0016025734105963466</v>
       </c>
       <c r="N59" t="n" s="25">
         <v>0.5</v>
@@ -2617,31 +2617,31 @@
         <v>60.0</v>
       </c>
       <c r="E60" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F60" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G60" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H60" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I60" t="n" s="25">
-        <v>0.9891623086301198</v>
+        <v>0.9818614716871283</v>
       </c>
       <c r="J60" t="n" s="25">
-        <v>0.999999975108889</v>
+        <v>0.9999995415001934</v>
       </c>
       <c r="K60" t="n" s="25">
-        <v>0.8164624350766485</v>
+        <v>0.788318917635444</v>
       </c>
       <c r="L60" t="n" s="25">
-        <v>0.9971712990733846</v>
+        <v>0.9938694964429036</v>
       </c>
       <c r="M60" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9998418714540626</v>
       </c>
       <c r="N60" t="n" s="25">
         <v>0.5</v>
@@ -2652,31 +2652,31 @@
         <v>61.0</v>
       </c>
       <c r="E61" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F61" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G61" t="n" s="25">
-        <v>0.9512536907618918</v>
+        <v>0.9252822564008258</v>
       </c>
       <c r="H61" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I61" t="n" s="25">
-        <v>0.9785570097703955</v>
+        <v>0.9643692330493995</v>
       </c>
       <c r="J61" t="n" s="25">
-        <v>0.9997166979591936</v>
+        <v>0.9983787307344183</v>
       </c>
       <c r="K61" t="n" s="25">
-        <v>0.9170511145024015</v>
+        <v>0.8899169356367348</v>
       </c>
       <c r="L61" t="n" s="25">
-        <v>0.9981254223530469</v>
+        <v>0.9932537584126587</v>
       </c>
       <c r="M61" t="n" s="25">
-        <v>0.7836990189024649</v>
+        <v>0.22767003709249012</v>
       </c>
       <c r="N61" t="n" s="25">
         <v>0.5</v>
@@ -2687,31 +2687,31 @@
         <v>62.0</v>
       </c>
       <c r="E62" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F62" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G62" t="n" s="25">
-        <v>0.9869741828691956</v>
+        <v>0.9769507690635896</v>
       </c>
       <c r="H62" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I62" t="n" s="25">
-        <v>0.9891623086301198</v>
+        <v>0.9818614716871283</v>
       </c>
       <c r="J62" t="n" s="25">
-        <v>0.9995007538881909</v>
+        <v>0.9970081537185905</v>
       </c>
       <c r="K62" t="n" s="25">
-        <v>0.9170511145024015</v>
+        <v>0.8899169356367348</v>
       </c>
       <c r="L62" t="n" s="25">
-        <v>0.993829093621846</v>
+        <v>0.9780377799756247</v>
       </c>
       <c r="M62" t="n" s="25">
-        <v>1.0</v>
+        <v>0.20972273058689597</v>
       </c>
       <c r="N62" t="n" s="25">
         <v>0.5</v>
@@ -2722,31 +2722,31 @@
         <v>63.0</v>
       </c>
       <c r="E63" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F63" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G63" t="n" s="25">
-        <v>0.9806059331236519</v>
+        <v>0.9651648377739486</v>
       </c>
       <c r="H63" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I63" t="n" s="25">
-        <v>0.9785570097703955</v>
+        <v>0.9643692330493995</v>
       </c>
       <c r="J63" t="n" s="25">
-        <v>0.9999775298451867</v>
+        <v>0.9997771694296584</v>
       </c>
       <c r="K63" t="n" s="25">
-        <v>0.8752011044571273</v>
+        <v>0.8458423760252496</v>
       </c>
       <c r="L63" t="n" s="25">
-        <v>0.990759763139425</v>
+        <v>0.9745129942053187</v>
       </c>
       <c r="M63" t="n" s="25">
-        <v>1.0</v>
+        <v>0.8598568946972319</v>
       </c>
       <c r="N63" t="n" s="25">
         <v>0.5</v>
@@ -2757,31 +2757,31 @@
         <v>64.0</v>
       </c>
       <c r="E64" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F64" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G64" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H64" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I64" t="n" s="25">
-        <v>0.9774115022152837</v>
+        <v>0.9656870919583598</v>
       </c>
       <c r="J64" t="n" s="25">
-        <v>0.999998443706721</v>
+        <v>0.9999820056233123</v>
       </c>
       <c r="K64" t="n" s="25">
-        <v>0.8514964378770784</v>
+        <v>0.8209849684438301</v>
       </c>
       <c r="L64" t="n" s="25">
-        <v>0.9984532016357349</v>
+        <v>0.9960542097761967</v>
       </c>
       <c r="M64" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999811624386823</v>
       </c>
       <c r="N64" t="n" s="25">
         <v>0.5</v>
@@ -2792,31 +2792,31 @@
         <v>65.0</v>
       </c>
       <c r="E65" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F65" t="n" s="25">
-        <v>0.7625001560855269</v>
+        <v>0.7391331680517135</v>
       </c>
       <c r="G65" t="n" s="25">
-        <v>0.9692596997060435</v>
+        <v>0.9482131512360554</v>
       </c>
       <c r="H65" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I65" t="n" s="25">
-        <v>0.9691565126443438</v>
+        <v>0.9512567789675214</v>
       </c>
       <c r="J65" t="n" s="25">
-        <v>0.9995306774697491</v>
+        <v>0.9969359986830202</v>
       </c>
       <c r="K65" t="n" s="25">
-        <v>0.9457372695136343</v>
+        <v>0.9225442415347964</v>
       </c>
       <c r="L65" t="n" s="25">
-        <v>0.9911801772943227</v>
+        <v>0.9681663652011354</v>
       </c>
       <c r="M65" t="n" s="25">
-        <v>1.0</v>
+        <v>0.8437296099391453</v>
       </c>
       <c r="N65" t="n" s="25">
         <v>0.5</v>
@@ -2827,31 +2827,31 @@
         <v>66.0</v>
       </c>
       <c r="E66" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F66" t="n" s="25">
-        <v>0.5291204130104772</v>
+        <v>0.49791149361184306</v>
       </c>
       <c r="G66" t="n" s="25">
-        <v>0.011951675802093848</v>
+        <v>0.00962404236222409</v>
       </c>
       <c r="H66" t="n" s="25">
-        <v>0.6535420831532384</v>
+        <v>0.6384496787841895</v>
       </c>
       <c r="I66" t="n" s="25">
-        <v>0.07672435226732824</v>
+        <v>0.05654196134214748</v>
       </c>
       <c r="J66" t="n" s="25">
-        <v>1.2540274792449418E-6</v>
+        <v>6.274478501768791E-7</v>
       </c>
       <c r="K66" t="n" s="25">
-        <v>0.4300504885501914</v>
+        <v>0.4139526230411868</v>
       </c>
       <c r="L66" t="n" s="25">
-        <v>9.204338671802642E-6</v>
+        <v>6.6380441234551115E-6</v>
       </c>
       <c r="M66" t="n" s="25">
-        <v>1.2223202524318655E-14</v>
+        <v>6.115828773761405E-15</v>
       </c>
       <c r="N66" t="n" s="25">
         <v>0.5</v>
@@ -2862,31 +2862,31 @@
         <v>67.0</v>
       </c>
       <c r="E67" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F67" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G67" t="n" s="25">
-        <v>0.6396788241810576</v>
+        <v>0.6077780924317244</v>
       </c>
       <c r="H67" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I67" t="n" s="25">
-        <v>0.9785570097703955</v>
+        <v>0.9643692330493995</v>
       </c>
       <c r="J67" t="n" s="25">
-        <v>0.017039007201264094</v>
+        <v>0.010176145539333423</v>
       </c>
       <c r="K67" t="n" s="25">
-        <v>0.9619364307404119</v>
+        <v>0.9427835755639539</v>
       </c>
       <c r="L67" t="n" s="25">
-        <v>0.98243611892147</v>
+        <v>0.9090043827102705</v>
       </c>
       <c r="M67" t="n" s="25">
-        <v>1.8697042316362338E-6</v>
+        <v>3.3391447568337425E-7</v>
       </c>
       <c r="N67" t="n" s="25">
         <v>0.5</v>
@@ -2897,31 +2897,31 @@
         <v>68.0</v>
       </c>
       <c r="E68" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F68" t="n" s="25">
-        <v>0.7625001560855269</v>
+        <v>0.7391331680517135</v>
       </c>
       <c r="G68" t="n" s="25">
-        <v>0.8759015734717774</v>
+        <v>0.8191248218715425</v>
       </c>
       <c r="H68" t="n" s="25">
-        <v>0.7184307993411199</v>
+        <v>0.6979648231422695</v>
       </c>
       <c r="I68" t="n" s="25">
-        <v>0.8964166776648251</v>
+        <v>0.8491410912452537</v>
       </c>
       <c r="J68" t="n" s="25">
-        <v>0.9917663892584443</v>
+        <v>0.9584229374004889</v>
       </c>
       <c r="K68" t="n" s="25">
-        <v>0.9019102188419109</v>
+        <v>0.8740512080026321</v>
       </c>
       <c r="L68" t="n" s="25">
-        <v>0.875768726794652</v>
+        <v>0.7345824815506892</v>
       </c>
       <c r="M68" t="n" s="25">
-        <v>1.0</v>
+        <v>0.02369598868129255</v>
       </c>
       <c r="N68" t="n" s="25">
         <v>0.5</v>
@@ -2932,31 +2932,31 @@
         <v>69.0</v>
       </c>
       <c r="E69" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F69" t="n" s="25">
-        <v>0.1661701606944303</v>
+        <v>0.15079351048790313</v>
       </c>
       <c r="G69" t="n" s="25">
-        <v>0.016392474585218874</v>
+        <v>0.011695087090638668</v>
       </c>
       <c r="H69" t="n" s="25">
-        <v>0.140109506690095</v>
+        <v>0.12923796425747183</v>
       </c>
       <c r="I69" t="n" s="25">
-        <v>1.2645114007094635E-4</v>
+        <v>9.039494863099006E-5</v>
       </c>
       <c r="J69" t="n" s="25">
-        <v>1.6473353239313912E-9</v>
+        <v>8.192302748884736E-10</v>
       </c>
       <c r="K69" t="n" s="25">
-        <v>0.0011717845159640516</v>
+        <v>0.0010674788302714592</v>
       </c>
       <c r="L69" t="n" s="25">
-        <v>1.1435003929097264E-9</v>
+        <v>8.174139980653056E-10</v>
       </c>
       <c r="M69" t="n" s="25">
-        <v>1.6384505779985323E-17</v>
+        <v>8.1481183387122E-18</v>
       </c>
       <c r="N69" t="n" s="25">
         <v>0.5</v>
@@ -2967,31 +2967,31 @@
         <v>70.0</v>
       </c>
       <c r="E70" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F70" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G70" t="n" s="25">
-        <v>0.26536623272160065</v>
+        <v>0.21341883205682727</v>
       </c>
       <c r="H70" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I70" t="n" s="25">
-        <v>0.7758664420335202</v>
+        <v>0.6924481359966784</v>
       </c>
       <c r="J70" t="n" s="25">
-        <v>0.016105557096860304</v>
+        <v>0.005925524053833564</v>
       </c>
       <c r="K70" t="n" s="25">
-        <v>0.8514964378770785</v>
+        <v>0.8209849684438301</v>
       </c>
       <c r="L70" t="n" s="25">
-        <v>0.1678840758332935</v>
+        <v>0.07313060812900092</v>
       </c>
       <c r="M70" t="n" s="25">
-        <v>8.395672095101326E-8</v>
+        <v>1.838240219420374E-8</v>
       </c>
       <c r="N70" t="n" s="25">
         <v>0.5</v>
@@ -3002,31 +3002,31 @@
         <v>71.0</v>
       </c>
       <c r="E71" t="n" s="25">
-        <v>0.039678254463334124</v>
+        <v>0.03914959398399346</v>
       </c>
       <c r="F71" t="n" s="25">
-        <v>0.0046450370221202955</v>
+        <v>0.0042440580162448225</v>
       </c>
       <c r="G71" t="n" s="25">
-        <v>7.843256589500101E-4</v>
+        <v>6.521547731036959E-4</v>
       </c>
       <c r="H71" t="n" s="25">
-        <v>0.0042020078983478135</v>
+        <v>0.003881504080491153</v>
       </c>
       <c r="I71" t="n" s="25">
-        <v>4.110027585072229E-5</v>
+        <v>2.8612915811537028E-5</v>
       </c>
       <c r="J71" t="n" s="25">
-        <v>5.317663126779077E-9</v>
+        <v>2.941944797075265E-9</v>
       </c>
       <c r="K71" t="n" s="25">
-        <v>5.287659897545893E-4</v>
+        <v>3.9863869304041584E-4</v>
       </c>
       <c r="L71" t="n" s="25">
-        <v>2.3028494200578817E-7</v>
+        <v>7.474408311368383E-8</v>
       </c>
       <c r="M71" t="n" s="25">
-        <v>8.739474015180239E-15</v>
+        <v>2.2542301059466732E-15</v>
       </c>
       <c r="N71" t="n" s="25">
         <v>0.5</v>
@@ -3037,31 +3037,31 @@
         <v>72.0</v>
       </c>
       <c r="E72" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F72" t="n" s="25">
-        <v>0.5291204130104772</v>
+        <v>0.49791149361184306</v>
       </c>
       <c r="G72" t="n" s="25">
-        <v>0.13651811437923625</v>
+        <v>0.09209952230441273</v>
       </c>
       <c r="H72" t="n" s="25">
-        <v>0.6759732491923404</v>
+        <v>0.6588790382688317</v>
       </c>
       <c r="I72" t="n" s="25">
-        <v>0.23178895920624984</v>
+        <v>0.17204093360333955</v>
       </c>
       <c r="J72" t="n" s="25">
-        <v>0.21183906221996457</v>
+        <v>0.051649517392311405</v>
       </c>
       <c r="K72" t="n" s="25">
-        <v>0.5681298992309124</v>
+        <v>0.5323416796097726</v>
       </c>
       <c r="L72" t="n" s="25">
-        <v>0.018756465916701947</v>
+        <v>0.010104328051655476</v>
       </c>
       <c r="M72" t="n" s="25">
-        <v>1.4984255274346133E-6</v>
+        <v>2.3543718478731694E-7</v>
       </c>
       <c r="N72" t="n" s="25">
         <v>0.5</v>
@@ -3072,31 +3072,31 @@
         <v>73.0</v>
       </c>
       <c r="E73" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F73" t="n" s="25">
-        <v>0.5291204130104772</v>
+        <v>0.49791149361184306</v>
       </c>
       <c r="G73" t="n" s="25">
-        <v>0.09443091872459707</v>
+        <v>0.08071595174874725</v>
       </c>
       <c r="H73" t="n" s="25">
-        <v>0.7241361600914255</v>
+        <v>0.7031087489998987</v>
       </c>
       <c r="I73" t="n" s="25">
-        <v>0.35798429992739156</v>
+        <v>0.2612443598121256</v>
       </c>
       <c r="J73" t="n" s="25">
-        <v>8.9553112055888E-7</v>
+        <v>5.418741303201775E-7</v>
       </c>
       <c r="K73" t="n" s="25">
-        <v>0.17355244744566492</v>
+        <v>0.1592816099493642</v>
       </c>
       <c r="L73" t="n" s="25">
-        <v>3.0880315762232157E-6</v>
+        <v>1.9584388002498297E-6</v>
       </c>
       <c r="M73" t="n" s="25">
-        <v>1.4548131932769283E-15</v>
+        <v>8.80288062570353E-16</v>
       </c>
       <c r="N73" t="n" s="25">
         <v>0.5</v>
@@ -3107,31 +3107,31 @@
         <v>74.0</v>
       </c>
       <c r="E74" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F74" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G74" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H74" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I74" t="n" s="25">
-        <v>0.9774115022152837</v>
+        <v>0.9656870919583598</v>
       </c>
       <c r="J74" t="n" s="25">
-        <v>0.999998443706721</v>
+        <v>0.9999820056233123</v>
       </c>
       <c r="K74" t="n" s="25">
-        <v>0.7843498649815572</v>
+        <v>0.7568523876827601</v>
       </c>
       <c r="L74" t="n" s="25">
-        <v>0.9940520532207158</v>
+        <v>0.988274972878489</v>
       </c>
       <c r="M74" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9938312542019977</v>
       </c>
       <c r="N74" t="n" s="25">
         <v>0.5</v>
@@ -3142,31 +3142,31 @@
         <v>75.0</v>
       </c>
       <c r="E75" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F75" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G75" t="n" s="25">
-        <v>0.9280849602063226</v>
+        <v>0.8965128440244647</v>
       </c>
       <c r="H75" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I75" t="n" s="25">
-        <v>0.9785570097703955</v>
+        <v>0.9643692330493995</v>
       </c>
       <c r="J75" t="n" s="25">
-        <v>0.9971311261366073</v>
+        <v>0.986869719891216</v>
       </c>
       <c r="K75" t="n" s="25">
-        <v>0.9435584153097322</v>
+        <v>0.9203571137590745</v>
       </c>
       <c r="L75" t="n" s="25">
-        <v>0.9984922112939082</v>
+        <v>0.9932782528304968</v>
       </c>
       <c r="M75" t="n" s="25">
-        <v>1.0</v>
+        <v>0.3661962380461479</v>
       </c>
       <c r="N75" t="n" s="25">
         <v>0.5</v>
@@ -3177,31 +3177,31 @@
         <v>76.0</v>
       </c>
       <c r="E76" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F76" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G76" t="n" s="25">
-        <v>0.3739088476397318</v>
+        <v>0.32181031543629324</v>
       </c>
       <c r="H76" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I76" t="n" s="25">
-        <v>0.7758664420335202</v>
+        <v>0.6924481359966784</v>
       </c>
       <c r="J76" t="n" s="25">
-        <v>8.155517474094598E-4</v>
+        <v>3.6817866070442827E-4</v>
       </c>
       <c r="K76" t="n" s="25">
-        <v>0.8406083378799342</v>
+        <v>0.8115428998824288</v>
       </c>
       <c r="L76" t="n" s="25">
-        <v>0.026139750149815368</v>
+        <v>0.011149852036943447</v>
       </c>
       <c r="M76" t="n" s="25">
-        <v>1.0</v>
+        <v>3.94977676897567E-9</v>
       </c>
       <c r="N76" t="n" s="25">
         <v>0.5</v>
@@ -3212,31 +3212,31 @@
         <v>77.0</v>
       </c>
       <c r="E77" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F77" t="n" s="25">
-        <v>0.5291204130104772</v>
+        <v>0.49791149361184306</v>
       </c>
       <c r="G77" t="n" s="25">
-        <v>0.016050017630210286</v>
+        <v>0.013426199762506716</v>
       </c>
       <c r="H77" t="n" s="25">
-        <v>0.6813349620573783</v>
+        <v>0.6637198982834279</v>
       </c>
       <c r="I77" t="n" s="25">
-        <v>0.05401423452181249</v>
+        <v>0.038508159010964056</v>
       </c>
       <c r="J77" t="n" s="25">
-        <v>1.4344856906974199E-8</v>
+        <v>9.512037802001155E-9</v>
       </c>
       <c r="K77" t="n" s="25">
-        <v>0.20418342459291153</v>
+        <v>0.1914915010287767</v>
       </c>
       <c r="L77" t="n" s="25">
-        <v>3.388062727859368E-7</v>
+        <v>2.3764846600633195E-7</v>
       </c>
       <c r="M77" t="n" s="25">
-        <v>1.872607993034869E-17</v>
+        <v>1.241721548531689E-17</v>
       </c>
       <c r="N77" t="n" s="25">
         <v>0.5</v>
@@ -3247,31 +3247,31 @@
         <v>78.0</v>
       </c>
       <c r="E78" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F78" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G78" t="n" s="25">
-        <v>0.9786403062118032</v>
+        <v>0.9602773210186365</v>
       </c>
       <c r="H78" t="n" s="25">
-        <v>0.6535420831532384</v>
+        <v>0.6384496787841895</v>
       </c>
       <c r="I78" t="n" s="25">
-        <v>0.8913702605857652</v>
+        <v>0.8540759505442135</v>
       </c>
       <c r="J78" t="n" s="25">
-        <v>0.49915661885017515</v>
+        <v>0.21849217232247217</v>
       </c>
       <c r="K78" t="n" s="25">
-        <v>0.6535420831532384</v>
+        <v>0.6384496787841895</v>
       </c>
       <c r="L78" t="n" s="25">
-        <v>0.13667806586016476</v>
+        <v>0.10146605081817053</v>
       </c>
       <c r="M78" t="n" s="25">
-        <v>1.6921290430183777E-6</v>
+        <v>4.7468079723431916E-7</v>
       </c>
       <c r="N78" t="n" s="25">
         <v>0.5</v>
@@ -3282,31 +3282,31 @@
         <v>79.0</v>
       </c>
       <c r="E79" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F79" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G79" t="n" s="25">
-        <v>0.8668502865029473</v>
+        <v>0.8033186148102367</v>
       </c>
       <c r="H79" t="n" s="25">
-        <v>0.7437885845917195</v>
+        <v>0.7214784058872852</v>
       </c>
       <c r="I79" t="n" s="25">
-        <v>0.9224196063233532</v>
+        <v>0.8782095586249355</v>
       </c>
       <c r="J79" t="n" s="25">
-        <v>0.902446266930612</v>
+        <v>0.6565644669200941</v>
       </c>
       <c r="K79" t="n" s="25">
-        <v>0.537296384024657</v>
+        <v>0.5088780975001176</v>
       </c>
       <c r="L79" t="n" s="25">
-        <v>0.06389669782129027</v>
+        <v>0.03975089903118264</v>
       </c>
       <c r="M79" t="n" s="25">
-        <v>9.346826021499398E-6</v>
+        <v>1.9316216660048928E-6</v>
       </c>
       <c r="N79" t="n" s="25">
         <v>0.5</v>
@@ -3317,31 +3317,31 @@
         <v>80.0</v>
       </c>
       <c r="E80" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F80" t="n" s="25">
-        <v>0.5840805190885527</v>
+        <v>0.5543938611267077</v>
       </c>
       <c r="G80" t="n" s="25">
-        <v>0.14008093333956678</v>
+        <v>0.12102903385637569</v>
       </c>
       <c r="H80" t="n" s="25">
-        <v>0.5344909962096427</v>
+        <v>0.5097781327673324</v>
       </c>
       <c r="I80" t="n" s="25">
-        <v>0.6910711143513691</v>
+        <v>0.5850963327967063</v>
       </c>
       <c r="J80" t="n" s="25">
-        <v>8.981067597058854E-5</v>
+        <v>4.716005569900587E-5</v>
       </c>
       <c r="K80" t="n" s="25">
-        <v>0.6441384621598804</v>
+        <v>0.605074158036661</v>
       </c>
       <c r="L80" t="n" s="25">
-        <v>0.0013273992128718527</v>
+        <v>6.492998556762461E-4</v>
       </c>
       <c r="M80" t="n" s="25">
-        <v>4.6963866141933575E-12</v>
+        <v>1.9121622758516966E-12</v>
       </c>
       <c r="N80" t="n" s="25">
         <v>0.5</v>
@@ -3352,31 +3352,31 @@
         <v>81.0</v>
       </c>
       <c r="E81" t="n" s="25">
-        <v>0.039678254463334124</v>
+        <v>0.03914959398399346</v>
       </c>
       <c r="F81" t="n" s="25">
-        <v>0.004202007898347814</v>
+        <v>0.0038815040804911537</v>
       </c>
       <c r="G81" t="n" s="25">
-        <v>0.0015450614622401827</v>
+        <v>0.0010260170997256882</v>
       </c>
       <c r="H81" t="n" s="25">
-        <v>0.003801072145901154</v>
+        <v>0.003549811353718758</v>
       </c>
       <c r="I81" t="n" s="25">
-        <v>4.7559397760252364E-5</v>
+        <v>3.5495885030627755E-5</v>
       </c>
       <c r="J81" t="n" s="25">
-        <v>1.6446301755558134E-5</v>
+        <v>4.182695829215082E-6</v>
       </c>
       <c r="K81" t="n" s="25">
-        <v>0.0015149327173111303</v>
+        <v>0.0012357815249696919</v>
       </c>
       <c r="L81" t="n" s="25">
-        <v>6.65016812212949E-7</v>
+        <v>3.5968383690855194E-7</v>
       </c>
       <c r="M81" t="n" s="25">
-        <v>1.0</v>
+        <v>4.102618279497406E-11</v>
       </c>
       <c r="N81" t="n" s="25">
         <v>0.5</v>
@@ -3387,31 +3387,31 @@
         <v>82.0</v>
       </c>
       <c r="E82" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F82" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G82" t="n" s="25">
-        <v>0.19282232249872072</v>
+        <v>0.15952648778777384</v>
       </c>
       <c r="H82" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I82" t="n" s="25">
-        <v>0.7758664420335202</v>
+        <v>0.6924481359966784</v>
       </c>
       <c r="J82" t="n" s="25">
-        <v>3.263804070305482E-4</v>
+        <v>1.473040047964927E-4</v>
       </c>
       <c r="K82" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555407</v>
       </c>
       <c r="L82" t="n" s="25">
-        <v>9.576321884636426E-4</v>
+        <v>6.230644255316549E-4</v>
       </c>
       <c r="M82" t="n" s="25">
-        <v>7.955789183781874E-12</v>
+        <v>3.5900124173746123E-12</v>
       </c>
       <c r="N82" t="n" s="25">
         <v>0.5</v>
@@ -3422,31 +3422,31 @@
         <v>83.0</v>
       </c>
       <c r="E83" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F83" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G83" t="n" s="25">
-        <v>0.14144519184682972</v>
+        <v>0.12064643636624212</v>
       </c>
       <c r="H83" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I83" t="n" s="25">
-        <v>0.7758664420335202</v>
+        <v>0.6924481359966784</v>
       </c>
       <c r="J83" t="n" s="25">
-        <v>2.501753242001063E-5</v>
+        <v>1.3553460499508259E-5</v>
       </c>
       <c r="K83" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555407</v>
       </c>
       <c r="L83" t="n" s="25">
-        <v>2.3958011934140872E-4</v>
+        <v>1.5583892965279837E-4</v>
       </c>
       <c r="M83" t="n" s="25">
-        <v>1.5240975447976956E-13</v>
+        <v>8.256833131987449E-14</v>
       </c>
       <c r="N83" t="n" s="25">
         <v>0.5</v>
@@ -3457,31 +3457,31 @@
         <v>84.0</v>
       </c>
       <c r="E84" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F84" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G84" t="n" s="25">
-        <v>0.9909864839303123</v>
+        <v>0.9833374222314617</v>
       </c>
       <c r="H84" t="n" s="25">
-        <v>0.7625001560855269</v>
+        <v>0.7391331680517135</v>
       </c>
       <c r="I84" t="n" s="25">
-        <v>0.9929939228122315</v>
+        <v>0.9875388164375846</v>
       </c>
       <c r="J84" t="n" s="25">
-        <v>0.9999700548444564</v>
+        <v>0.9997192880842556</v>
       </c>
       <c r="K84" t="n" s="25">
-        <v>0.8886289978920316</v>
+        <v>0.8601503225460367</v>
       </c>
       <c r="L84" t="n" s="25">
-        <v>0.9881308854757525</v>
+        <v>0.9655040148054607</v>
       </c>
       <c r="M84" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9305214906095709</v>
       </c>
       <c r="N84" t="n" s="25">
         <v>0.5</v>
@@ -3492,31 +3492,31 @@
         <v>85.0</v>
       </c>
       <c r="E85" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F85" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G85" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H85" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I85" t="n" s="25">
-        <v>0.9774115022152837</v>
+        <v>0.9656870919583598</v>
       </c>
       <c r="J85" t="n" s="25">
-        <v>0.999998443706721</v>
+        <v>0.9999820056233123</v>
       </c>
       <c r="K85" t="n" s="25">
-        <v>0.8514964378770785</v>
+        <v>0.8209849684438301</v>
       </c>
       <c r="L85" t="n" s="25">
-        <v>0.9984532016357349</v>
+        <v>0.9960542097761967</v>
       </c>
       <c r="M85" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999811624386823</v>
       </c>
       <c r="N85" t="n" s="25">
         <v>0.5</v>
@@ -3527,31 +3527,31 @@
         <v>86.0</v>
       </c>
       <c r="E86" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F86" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G86" t="n" s="25">
-        <v>0.9685176564181152</v>
+        <v>0.9480397160628998</v>
       </c>
       <c r="H86" t="n" s="25">
-        <v>0.7184307993411199</v>
+        <v>0.6979648231422695</v>
       </c>
       <c r="I86" t="n" s="25">
-        <v>0.9691565126443438</v>
+        <v>0.9512567789675214</v>
       </c>
       <c r="J86" t="n" s="25">
-        <v>0.9987124246555851</v>
+        <v>0.9925079802253638</v>
       </c>
       <c r="K86" t="n" s="25">
-        <v>0.8008921547727067</v>
+        <v>0.7729704643271079</v>
       </c>
       <c r="L86" t="n" s="25">
-        <v>0.9170750991800297</v>
+        <v>0.8419237459266976</v>
       </c>
       <c r="M86" t="n" s="25">
-        <v>0.02346010554431396</v>
+        <v>0.0031714714487576403</v>
       </c>
       <c r="N86" t="n" s="25">
         <v>0.5</v>
@@ -3562,31 +3562,31 @@
         <v>87.0</v>
       </c>
       <c r="E87" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F87" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G87" t="n" s="25">
-        <v>0.9937269438928171</v>
+        <v>0.9860365223503418</v>
       </c>
       <c r="H87" t="n" s="25">
-        <v>0.6759732491923404</v>
+        <v>0.6588790382688317</v>
       </c>
       <c r="I87" t="n" s="25">
-        <v>0.9225847489887757</v>
+        <v>0.8903167549556674</v>
       </c>
       <c r="J87" t="n" s="25">
-        <v>0.9998787646513828</v>
+        <v>0.9989629941565206</v>
       </c>
       <c r="K87" t="n" s="25">
-        <v>0.766833332336457</v>
+        <v>0.7399749429920951</v>
       </c>
       <c r="L87" t="n" s="25">
-        <v>0.9539447639111087</v>
+        <v>0.9162451654165263</v>
       </c>
       <c r="M87" t="n" s="25">
-        <v>1.0</v>
+        <v>0.556880477677689</v>
       </c>
       <c r="N87" t="n" s="25">
         <v>0.5</v>
@@ -3597,31 +3597,31 @@
         <v>88.0</v>
       </c>
       <c r="E88" t="n" s="25">
-        <v>0.011971109093407827</v>
+        <v>0.011834185010712962</v>
       </c>
       <c r="F88" t="n" s="25">
-        <v>4.3290695399710066E-4</v>
+        <v>4.007006757215588E-4</v>
       </c>
       <c r="G88" t="n" s="25">
-        <v>1.5231717004034266E-4</v>
+        <v>1.0250307239021336E-4</v>
       </c>
       <c r="H88" t="n" s="25">
-        <v>0.0012358833981736892</v>
+        <v>0.0011440077505155098</v>
       </c>
       <c r="I88" t="n" s="25">
-        <v>2.3275499233927625E-5</v>
+        <v>1.6053194200417622E-5</v>
       </c>
       <c r="J88" t="n" s="25">
-        <v>2.3325472135512223E-5</v>
+        <v>4.733619789406418E-6</v>
       </c>
       <c r="K88" t="n" s="25">
-        <v>7.918814128447654E-5</v>
+        <v>7.329497965620598E-5</v>
       </c>
       <c r="L88" t="n" s="25">
-        <v>2.748853813913008E-8</v>
+        <v>1.8958805276761556E-8</v>
       </c>
       <c r="M88" t="n" s="25">
-        <v>2.4241851605260942E-12</v>
+        <v>4.919496350048868E-13</v>
       </c>
       <c r="N88" t="n" s="25">
         <v>0.5</v>
@@ -3632,31 +3632,31 @@
         <v>89.0</v>
       </c>
       <c r="E89" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F89" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G89" t="n" s="25">
-        <v>0.9248433044146344</v>
+        <v>0.8794917541629333</v>
       </c>
       <c r="H89" t="n" s="25">
-        <v>0.7184307993411199</v>
+        <v>0.6979648231422695</v>
       </c>
       <c r="I89" t="n" s="25">
-        <v>0.7928876504557467</v>
+        <v>0.7112064746903227</v>
       </c>
       <c r="J89" t="n" s="25">
-        <v>0.9882355941647096</v>
+        <v>0.9369467291826054</v>
       </c>
       <c r="K89" t="n" s="25">
-        <v>0.7172329962761738</v>
+        <v>0.6673903410694231</v>
       </c>
       <c r="L89" t="n" s="25">
-        <v>0.8222501071148153</v>
+        <v>0.6414766206168102</v>
       </c>
       <c r="M89" t="n" s="25">
-        <v>0.01755100967744522</v>
+        <v>0.0018964903260008236</v>
       </c>
       <c r="N89" t="n" s="25">
         <v>0.5</v>
@@ -3667,31 +3667,31 @@
         <v>90.0</v>
       </c>
       <c r="E90" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F90" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G90" t="n" s="25">
-        <v>0.9627013117793409</v>
+        <v>0.9454329263829652</v>
       </c>
       <c r="H90" t="n" s="25">
-        <v>0.7625001560855269</v>
+        <v>0.7391331680517135</v>
       </c>
       <c r="I90" t="n" s="25">
-        <v>0.9929939228122315</v>
+        <v>0.9875388164375846</v>
       </c>
       <c r="J90" t="n" s="25">
-        <v>0.9977178666447012</v>
+        <v>0.988904754828849</v>
       </c>
       <c r="K90" t="n" s="25">
-        <v>0.8844372333495718</v>
+        <v>0.8564754653496386</v>
       </c>
       <c r="L90" t="n" s="25">
-        <v>0.9654203762529099</v>
+        <v>0.9071351055145902</v>
       </c>
       <c r="M90" t="n" s="25">
-        <v>1.0</v>
+        <v>0.015232785303796539</v>
       </c>
       <c r="N90" t="n" s="25">
         <v>0.5</v>
@@ -3702,31 +3702,31 @@
         <v>91.0</v>
       </c>
       <c r="E91" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F91" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G91" t="n" s="25">
-        <v>0.20617304253287672</v>
+        <v>0.16815117549599692</v>
       </c>
       <c r="H91" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I91" t="n" s="25">
-        <v>0.5132340711658743</v>
+        <v>0.41530266585071535</v>
       </c>
       <c r="J91" t="n" s="25">
-        <v>1.2012992785861303E-5</v>
+        <v>6.299739522317597E-6</v>
       </c>
       <c r="K91" t="n" s="25">
-        <v>0.47994041085741496</v>
+        <v>0.45801740248996897</v>
       </c>
       <c r="L91" t="n" s="25">
-        <v>6.487679143827743E-5</v>
+        <v>4.3705576797448795E-5</v>
       </c>
       <c r="M91" t="n" s="25">
-        <v>1.3010420514951718E-13</v>
+        <v>6.822762113233087E-14</v>
       </c>
       <c r="N91" t="n" s="25">
         <v>0.5</v>
@@ -3737,31 +3737,31 @@
         <v>92.0</v>
       </c>
       <c r="E92" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F92" t="n" s="25">
-        <v>0.5291204130104772</v>
+        <v>0.49791149361184306</v>
       </c>
       <c r="G92" t="n" s="25">
-        <v>0.9695133772980127</v>
+        <v>0.9387870206841821</v>
       </c>
       <c r="H92" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I92" t="n" s="25">
-        <v>0.9319453388688149</v>
+        <v>0.900054918250524</v>
       </c>
       <c r="J92" t="n" s="25">
-        <v>0.9998336806665417</v>
+        <v>0.9986233145949034</v>
       </c>
       <c r="K92" t="n" s="25">
-        <v>0.5926441715595062</v>
+        <v>0.5545837981556878</v>
       </c>
       <c r="L92" t="n" s="25">
-        <v>0.8107565258005638</v>
+        <v>0.6859916547431195</v>
       </c>
       <c r="M92" t="n" s="25">
-        <v>1.0</v>
+        <v>0.1455462357869421</v>
       </c>
       <c r="N92" t="n" s="25">
         <v>0.5</v>
@@ -3772,31 +3772,31 @@
         <v>93.0</v>
       </c>
       <c r="E93" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F93" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G93" t="n" s="25">
-        <v>0.8247898519389449</v>
+        <v>0.7775609123951931</v>
       </c>
       <c r="H93" t="n" s="25">
-        <v>0.7625001560855269</v>
+        <v>0.7391331680517135</v>
       </c>
       <c r="I93" t="n" s="25">
-        <v>0.9773604462669845</v>
+        <v>0.961540129775299</v>
       </c>
       <c r="J93" t="n" s="25">
-        <v>0.07427624761033756</v>
+        <v>0.029247732484187206</v>
       </c>
       <c r="K93" t="n" s="25">
-        <v>0.5622121937071385</v>
+        <v>0.5312535300381277</v>
       </c>
       <c r="L93" t="n" s="25">
-        <v>0.010514258770847128</v>
+        <v>0.006116140610257705</v>
       </c>
       <c r="M93" t="n" s="25">
-        <v>3.475869305554204E-9</v>
+        <v>1.3052048508562164E-9</v>
       </c>
       <c r="N93" t="n" s="25">
         <v>0.5</v>
@@ -3807,31 +3807,31 @@
         <v>94.0</v>
       </c>
       <c r="E94" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F94" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G94" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H94" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I94" t="n" s="25">
-        <v>0.9774115022152837</v>
+        <v>0.9656870919583598</v>
       </c>
       <c r="J94" t="n" s="25">
-        <v>0.999998443706721</v>
+        <v>0.9999820056233123</v>
       </c>
       <c r="K94" t="n" s="25">
-        <v>0.7843498649815572</v>
+        <v>0.7568523876827601</v>
       </c>
       <c r="L94" t="n" s="25">
-        <v>0.9940520532207158</v>
+        <v>0.988274972878489</v>
       </c>
       <c r="M94" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9938312542019977</v>
       </c>
       <c r="N94" t="n" s="25">
         <v>0.5</v>
@@ -3842,31 +3842,31 @@
         <v>95.0</v>
       </c>
       <c r="E95" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F95" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G95" t="n" s="25">
-        <v>0.8022985172203304</v>
+        <v>0.7595264242219694</v>
       </c>
       <c r="H95" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I95" t="n" s="25">
-        <v>0.9328860803061516</v>
+        <v>0.8951619963739322</v>
       </c>
       <c r="J95" t="n" s="25">
-        <v>0.005468937994478017</v>
+        <v>0.002622657796871557</v>
       </c>
       <c r="K95" t="n" s="25">
-        <v>0.7371987245314232</v>
+        <v>0.6869861476803053</v>
       </c>
       <c r="L95" t="n" s="25">
-        <v>0.05927605940674665</v>
+        <v>0.022743574222473462</v>
       </c>
       <c r="M95" t="n" s="25">
-        <v>4.387311115695573E-9</v>
+        <v>1.261426890633309E-9</v>
       </c>
       <c r="N95" t="n" s="25">
         <v>0.5</v>
@@ -3877,31 +3877,31 @@
         <v>96.0</v>
       </c>
       <c r="E96" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F96" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G96" t="n" s="25">
-        <v>0.9940167345328619</v>
+        <v>0.9882105103712859</v>
       </c>
       <c r="H96" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I96" t="n" s="25">
-        <v>0.6099067691480009</v>
+        <v>0.5040153067039312</v>
       </c>
       <c r="J96" t="n" s="25">
-        <v>0.8928285442405811</v>
+        <v>0.628184748798952</v>
       </c>
       <c r="K96" t="n" s="25">
-        <v>0.28469355084287795</v>
+        <v>0.2254221291251983</v>
       </c>
       <c r="L96" t="n" s="25">
-        <v>0.3380903020242456</v>
+        <v>0.13403386575436943</v>
       </c>
       <c r="M96" t="n" s="25">
-        <v>1.0</v>
+        <v>0.03311695307474193</v>
       </c>
       <c r="N96" t="n" s="25">
         <v>0.5</v>
@@ -3912,31 +3912,31 @@
         <v>97.0</v>
       </c>
       <c r="E97" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F97" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G97" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H97" t="n" s="25">
-        <v>0.6535420831532384</v>
+        <v>0.6384496787841895</v>
       </c>
       <c r="I97" t="n" s="25">
-        <v>0.9535185431041948</v>
+        <v>0.9360294776142906</v>
       </c>
       <c r="J97" t="n" s="25">
-        <v>0.9999027033951088</v>
+        <v>0.9992942623565831</v>
       </c>
       <c r="K97" t="n" s="25">
-        <v>0.7404212218389273</v>
+        <v>0.7162544822357393</v>
       </c>
       <c r="L97" t="n" s="25">
-        <v>0.9864674733626889</v>
+        <v>0.976722350994025</v>
       </c>
       <c r="M97" t="n" s="25">
-        <v>1.0</v>
+        <v>0.8511260430803713</v>
       </c>
       <c r="N97" t="n" s="25">
         <v>0.5</v>
@@ -3947,31 +3947,31 @@
         <v>98.0</v>
       </c>
       <c r="E98" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F98" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G98" t="n" s="25">
-        <v>0.966939935894725</v>
+        <v>0.9499254408376435</v>
       </c>
       <c r="H98" t="n" s="25">
-        <v>0.7625001560855269</v>
+        <v>0.7391331680517135</v>
       </c>
       <c r="I98" t="n" s="25">
-        <v>0.8002052580771688</v>
+        <v>0.7133209562918852</v>
       </c>
       <c r="J98" t="n" s="25">
-        <v>0.04420539989982667</v>
+        <v>0.016012236317253986</v>
       </c>
       <c r="K98" t="n" s="25">
-        <v>0.24466934777476873</v>
+        <v>0.21084014864572784</v>
       </c>
       <c r="L98" t="n" s="25">
-        <v>0.006641102062938187</v>
+        <v>0.0032102754309719897</v>
       </c>
       <c r="M98" t="n" s="25">
-        <v>5.4350057621393814E-8</v>
+        <v>1.4828070851614292E-8</v>
       </c>
       <c r="N98" t="n" s="25">
         <v>0.5</v>
@@ -3982,31 +3982,31 @@
         <v>99.0</v>
       </c>
       <c r="E99" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F99" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G99" t="n" s="25">
-        <v>0.996500400781445</v>
+        <v>0.9924542092762255</v>
       </c>
       <c r="H99" t="n" s="25">
-        <v>0.6759732491923403</v>
+        <v>0.6588790382688317</v>
       </c>
       <c r="I99" t="n" s="25">
-        <v>0.8760154687885603</v>
+        <v>0.8319393236033524</v>
       </c>
       <c r="J99" t="n" s="25">
-        <v>0.9558745482544826</v>
+        <v>0.8091309565452273</v>
       </c>
       <c r="K99" t="n" s="25">
-        <v>0.608671584902136</v>
+        <v>0.5571000683219816</v>
       </c>
       <c r="L99" t="n" s="25">
-        <v>0.7345225485306307</v>
+        <v>0.5382201280474156</v>
       </c>
       <c r="M99" t="n" s="25">
-        <v>1.0</v>
+        <v>0.02588226109177946</v>
       </c>
       <c r="N99" t="n" s="25">
         <v>0.5</v>
@@ -4017,31 +4017,31 @@
         <v>100.0</v>
       </c>
       <c r="E100" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F100" t="n" s="25">
-        <v>0.30768664062141887</v>
+        <v>0.2847453399320049</v>
       </c>
       <c r="G100" t="n" s="25">
-        <v>0.03148587311520185</v>
+        <v>0.025309011925552273</v>
       </c>
       <c r="H100" t="n" s="25">
-        <v>0.2665259637236654</v>
+        <v>0.2496713604486527</v>
       </c>
       <c r="I100" t="n" s="25">
-        <v>0.02036313908274267</v>
+        <v>0.0141667543259424</v>
       </c>
       <c r="J100" t="n" s="25">
-        <v>5.262934844670851E-7</v>
+        <v>2.832343937791647E-7</v>
       </c>
       <c r="K100" t="n" s="25">
-        <v>0.08396046764864704</v>
+        <v>0.07273533252794442</v>
       </c>
       <c r="L100" t="n" s="25">
-        <v>4.3913633145921376E-6</v>
+        <v>2.3540768244326825E-6</v>
       </c>
       <c r="M100" t="n" s="25">
-        <v>1.956872620714131E-14</v>
+        <v>8.16607815069633E-15</v>
       </c>
       <c r="N100" t="n" s="25">
         <v>0.5</v>
@@ -4052,31 +4052,31 @@
         <v>101.0</v>
       </c>
       <c r="E101" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F101" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G101" t="n" s="25">
-        <v>0.9512536907618918</v>
+        <v>0.9252822564008258</v>
       </c>
       <c r="H101" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I101" t="n" s="25">
-        <v>0.9785570097703955</v>
+        <v>0.9643692330493995</v>
       </c>
       <c r="J101" t="n" s="25">
-        <v>0.9997166979591936</v>
+        <v>0.9983787307344183</v>
       </c>
       <c r="K101" t="n" s="25">
-        <v>0.9170511145024015</v>
+        <v>0.8899169356367348</v>
       </c>
       <c r="L101" t="n" s="25">
-        <v>0.9981254223530469</v>
+        <v>0.9932537584126587</v>
       </c>
       <c r="M101" t="n" s="25">
-        <v>0.7836990189024649</v>
+        <v>0.22767003709249012</v>
       </c>
       <c r="N101" t="n" s="25">
         <v>0.5</v>
@@ -4087,31 +4087,31 @@
         <v>102.0</v>
       </c>
       <c r="E102" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F102" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G102" t="n" s="25">
-        <v>0.19282232249872072</v>
+        <v>0.15952648778777384</v>
       </c>
       <c r="H102" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I102" t="n" s="25">
-        <v>0.7758664420335202</v>
+        <v>0.6924481359966784</v>
       </c>
       <c r="J102" t="n" s="25">
-        <v>7.250005838631911E-4</v>
+        <v>3.272833093739937E-4</v>
       </c>
       <c r="K102" t="n" s="25">
-        <v>0.7843498649815572</v>
+        <v>0.7568523876827601</v>
       </c>
       <c r="L102" t="n" s="25">
-        <v>0.008160106830705205</v>
+        <v>0.004132167005355688</v>
       </c>
       <c r="M102" t="n" s="25">
-        <v>1.5174353456267438E-10</v>
+        <v>5.3095286015404024E-11</v>
       </c>
       <c r="N102" t="n" s="25">
         <v>0.5</v>
@@ -4122,31 +4122,31 @@
         <v>103.0</v>
       </c>
       <c r="E103" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F103" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G103" t="n" s="25">
-        <v>0.29171949888846443</v>
+        <v>0.2553969864964029</v>
       </c>
       <c r="H103" t="n" s="25">
-        <v>0.7184307993411199</v>
+        <v>0.6979648231422695</v>
       </c>
       <c r="I103" t="n" s="25">
-        <v>0.926300983630151</v>
+        <v>0.8864445360378337</v>
       </c>
       <c r="J103" t="n" s="25">
-        <v>2.270424588346968E-4</v>
+        <v>1.1746803797079504E-4</v>
       </c>
       <c r="K103" t="n" s="25">
-        <v>0.7184307993411199</v>
+        <v>0.6979648231422694</v>
       </c>
       <c r="L103" t="n" s="25">
-        <v>8.693356241322965E-4</v>
+        <v>5.401117873174038E-4</v>
       </c>
       <c r="M103" t="n" s="25">
-        <v>1.3834489021749978E-12</v>
+        <v>7.156952926851524E-13</v>
       </c>
       <c r="N103" t="n" s="25">
         <v>0.5</v>
@@ -4157,31 +4157,31 @@
         <v>104.0</v>
       </c>
       <c r="E104" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F104" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G104" t="n" s="25">
-        <v>0.19282232249872072</v>
+        <v>0.15952648778777384</v>
       </c>
       <c r="H104" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I104" t="n" s="25">
-        <v>0.7758664420335202</v>
+        <v>0.6924481359966784</v>
       </c>
       <c r="J104" t="n" s="25">
-        <v>3.263804070305482E-4</v>
+        <v>1.473040047964927E-4</v>
       </c>
       <c r="K104" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555407</v>
       </c>
       <c r="L104" t="n" s="25">
-        <v>9.576321884636426E-4</v>
+        <v>6.230644255316549E-4</v>
       </c>
       <c r="M104" t="n" s="25">
-        <v>7.955789183781874E-12</v>
+        <v>3.5900124173746123E-12</v>
       </c>
       <c r="N104" t="n" s="25">
         <v>0.5</v>
@@ -4192,31 +4192,31 @@
         <v>105.0</v>
       </c>
       <c r="E105" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F105" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G105" t="n" s="25">
-        <v>0.9241956392393531</v>
+        <v>0.8862416006903273</v>
       </c>
       <c r="H105" t="n" s="25">
-        <v>0.7625001560855269</v>
+        <v>0.7391331680517135</v>
       </c>
       <c r="I105" t="n" s="25">
-        <v>0.8280919904001575</v>
+        <v>0.7512132825145594</v>
       </c>
       <c r="J105" t="n" s="25">
-        <v>0.02266181363803467</v>
+        <v>0.008044476746346117</v>
       </c>
       <c r="K105" t="n" s="25">
-        <v>0.3393604157659353</v>
+        <v>0.31192964798441314</v>
       </c>
       <c r="L105" t="n" s="25">
-        <v>0.001052821385641134</v>
+        <v>6.602052164192463E-4</v>
       </c>
       <c r="M105" t="n" s="25">
-        <v>1.7857561730222358E-9</v>
+        <v>6.245654632729582E-10</v>
       </c>
       <c r="N105" t="n" s="25">
         <v>0.5</v>
@@ -4227,31 +4227,31 @@
         <v>106.0</v>
       </c>
       <c r="E106" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F106" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G106" t="n" s="25">
-        <v>0.14144519184682972</v>
+        <v>0.12064643636624212</v>
       </c>
       <c r="H106" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I106" t="n" s="25">
-        <v>0.7758664420335202</v>
+        <v>0.6924481359966784</v>
       </c>
       <c r="J106" t="n" s="25">
-        <v>5.559281662824413E-5</v>
+        <v>3.0118302190083976E-5</v>
       </c>
       <c r="K106" t="n" s="25">
-        <v>0.7843498649815572</v>
+        <v>0.7568523876827601</v>
       </c>
       <c r="L106" t="n" s="25">
-        <v>0.0020525887150721683</v>
+        <v>0.0010362532298932405</v>
       </c>
       <c r="M106" t="n" s="25">
-        <v>2.906964264085434E-12</v>
+        <v>1.2211626751590581E-12</v>
       </c>
       <c r="N106" t="n" s="25">
         <v>0.5</v>
@@ -4262,31 +4262,31 @@
         <v>107.0</v>
       </c>
       <c r="E107" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F107" t="n" s="25">
-        <v>0.5594340024551201</v>
+        <v>0.5321502592354699</v>
       </c>
       <c r="G107" t="n" s="25">
-        <v>0.47933220336422383</v>
+        <v>0.4403353591003373</v>
       </c>
       <c r="H107" t="n" s="25">
-        <v>0.5594340024551201</v>
+        <v>0.5321502592354699</v>
       </c>
       <c r="I107" t="n" s="25">
-        <v>0.8801573698997393</v>
+        <v>0.817187347745704</v>
       </c>
       <c r="J107" t="n" s="25">
-        <v>0.004078910530621449</v>
+        <v>0.002072033488799828</v>
       </c>
       <c r="K107" t="n" s="25">
-        <v>0.8326367586473529</v>
+        <v>0.7843815597480529</v>
       </c>
       <c r="L107" t="n" s="25">
-        <v>0.05575371335242702</v>
+        <v>0.019795050586630683</v>
       </c>
       <c r="M107" t="n" s="25">
-        <v>2.897620031429815E-9</v>
+        <v>8.254762617082588E-10</v>
       </c>
       <c r="N107" t="n" s="25">
         <v>0.5</v>
@@ -4297,31 +4297,31 @@
         <v>108.0</v>
       </c>
       <c r="E108" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F108" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G108" t="n" s="25">
-        <v>0.9984008427765455</v>
+        <v>0.9961700813593163</v>
       </c>
       <c r="H108" t="n" s="25">
-        <v>0.7383428068257107</v>
+        <v>0.7165244328145184</v>
       </c>
       <c r="I108" t="n" s="25">
-        <v>0.9891623086301198</v>
+        <v>0.9818614716871283</v>
       </c>
       <c r="J108" t="n" s="25">
-        <v>0.999999975108889</v>
+        <v>0.9999995415001934</v>
       </c>
       <c r="K108" t="n" s="25">
-        <v>0.8752011044571273</v>
+        <v>0.8458423760252496</v>
       </c>
       <c r="L108" t="n" s="25">
-        <v>0.9992660838358233</v>
+        <v>0.9979446386052533</v>
       </c>
       <c r="M108" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999951993599308</v>
       </c>
       <c r="N108" t="n" s="25">
         <v>0.5</v>
@@ -4332,31 +4332,31 @@
         <v>109.0</v>
       </c>
       <c r="E109" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F109" t="n" s="25">
-        <v>0.5291204130104772</v>
+        <v>0.49791149361184295</v>
       </c>
       <c r="G109" t="n" s="25">
-        <v>0.00827322157935431</v>
+        <v>0.006975248884073146</v>
       </c>
       <c r="H109" t="n" s="25">
-        <v>0.39767153206214606</v>
+        <v>0.381973406874498</v>
       </c>
       <c r="I109" t="n" s="25">
-        <v>0.02826302371556526</v>
+        <v>0.020544752874583763</v>
       </c>
       <c r="J109" t="n" s="25">
-        <v>3.36329619447734E-8</v>
+        <v>2.0203354858448334E-8</v>
       </c>
       <c r="K109" t="n" s="25">
-        <v>0.2089167621519051</v>
+        <v>0.1982176959171778</v>
       </c>
       <c r="L109" t="n" s="25">
-        <v>8.053863981900998E-7</v>
+        <v>5.808323790290733E-7</v>
       </c>
       <c r="M109" t="n" s="25">
-        <v>8.195633876458982E-17</v>
+        <v>4.923125639194195E-17</v>
       </c>
       <c r="N109" t="n" s="25">
         <v>0.5</v>
@@ -4367,31 +4367,31 @@
         <v>110.0</v>
       </c>
       <c r="E110" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F110" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G110" t="n" s="25">
-        <v>0.57726183446683</v>
+        <v>0.49229249105631856</v>
       </c>
       <c r="H110" t="n" s="25">
-        <v>0.7184307993411199</v>
+        <v>0.6979648231422695</v>
       </c>
       <c r="I110" t="n" s="25">
-        <v>0.926300983630151</v>
+        <v>0.8864445360378337</v>
       </c>
       <c r="J110" t="n" s="25">
-        <v>0.2340008119102122</v>
+        <v>0.07895551443639354</v>
       </c>
       <c r="K110" t="n" s="25">
-        <v>0.7184307993411199</v>
+        <v>0.6979648231422694</v>
       </c>
       <c r="L110" t="n" s="25">
-        <v>0.027626273496997342</v>
+        <v>0.017339857731468917</v>
       </c>
       <c r="M110" t="n" s="25">
-        <v>6.076735848930178E-8</v>
+        <v>1.7052308582944113E-8</v>
       </c>
       <c r="N110" t="n" s="25">
         <v>0.5</v>
@@ -4402,31 +4402,31 @@
         <v>111.0</v>
       </c>
       <c r="E111" t="n" s="25">
-        <v>0.5546246542938167</v>
+        <v>0.5490979942145197</v>
       </c>
       <c r="F111" t="n" s="25">
-        <v>0.7802489301531926</v>
+        <v>0.7560472372309479</v>
       </c>
       <c r="G111" t="n" s="25">
-        <v>0.14144519184682972</v>
+        <v>0.12064643636624212</v>
       </c>
       <c r="H111" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555408</v>
       </c>
       <c r="I111" t="n" s="25">
-        <v>0.7758664420335202</v>
+        <v>0.6924481359966784</v>
       </c>
       <c r="J111" t="n" s="25">
-        <v>2.501753242001063E-5</v>
+        <v>1.3553460499508259E-5</v>
       </c>
       <c r="K111" t="n" s="25">
-        <v>0.6976240601005346</v>
+        <v>0.6787349073555407</v>
       </c>
       <c r="L111" t="n" s="25">
-        <v>2.3958011934140872E-4</v>
+        <v>1.5583892965279837E-4</v>
       </c>
       <c r="M111" t="n" s="25">
-        <v>1.5240975447976956E-13</v>
+        <v>8.256833131987449E-14</v>
       </c>
       <c r="N111" t="n" s="25">
         <v>0.5</v>

--- a/data/old_posteriors/no_elementary_skills/complex_model/leak/unconstrained/results_model2a_leak_unconstrained.xlsx
+++ b/data/old_posteriors/no_elementary_skills/complex_model/leak/unconstrained/results_model2a_leak_unconstrained.xlsx
@@ -648,9 +648,7 @@
       <c r="M3" t="n" s="25">
         <v>0.05094996894600541</v>
       </c>
-      <c r="N3" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N3" s="25"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -683,9 +681,7 @@
       <c r="M4" t="n" s="25">
         <v>0.999811624386823</v>
       </c>
-      <c r="N4" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -718,9 +714,7 @@
       <c r="M5" t="n" s="25">
         <v>0.9999998542785645</v>
       </c>
-      <c r="N5" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N5" s="25"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -753,9 +747,7 @@
       <c r="M6" t="n" s="25">
         <v>0.9999999968239953</v>
       </c>
-      <c r="N6" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N6" s="25"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -788,9 +780,7 @@
       <c r="M7" t="n" s="25">
         <v>0.9999786300675315</v>
       </c>
-      <c r="N7" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N7" s="25"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -823,9 +813,7 @@
       <c r="M8" t="n" s="25">
         <v>0.8302301869083947</v>
       </c>
-      <c r="N8" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N8" s="25"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -858,9 +846,7 @@
       <c r="M9" t="n" s="25">
         <v>0.9999999998657335</v>
       </c>
-      <c r="N9" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N9" s="25"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -893,9 +879,7 @@
       <c r="M10" t="n" s="25">
         <v>0.999994280918483</v>
       </c>
-      <c r="N10" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N10" s="25"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -928,9 +912,7 @@
       <c r="M11" t="n" s="25">
         <v>0.9993100146410534</v>
       </c>
-      <c r="N11" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N11" s="25"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -963,9 +945,7 @@
       <c r="M12" t="n" s="25">
         <v>0.9999999998657335</v>
       </c>
-      <c r="N12" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N12" s="25"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -998,9 +978,7 @@
       <c r="M13" t="n" s="25">
         <v>0.019585090318786153</v>
       </c>
-      <c r="N13" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N13" s="25"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1033,9 +1011,7 @@
       <c r="M14" t="n" s="25">
         <v>2.6281157157081326E-8</v>
       </c>
-      <c r="N14" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N14" s="25"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1068,9 +1044,7 @@
       <c r="M15" t="n" s="25">
         <v>0.009426250879680733</v>
       </c>
-      <c r="N15" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N15" s="25"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1103,9 +1077,7 @@
       <c r="M16" t="n" s="25">
         <v>0.9973586761903487</v>
       </c>
-      <c r="N16" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N16" s="25"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1138,9 +1110,7 @@
       <c r="M17" t="n" s="25">
         <v>0.9999993445173293</v>
       </c>
-      <c r="N17" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N17" s="25"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1173,9 +1143,7 @@
       <c r="M18" t="n" s="25">
         <v>0.9999999999803695</v>
       </c>
-      <c r="N18" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N18" s="25"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1208,9 +1176,7 @@
       <c r="M19" t="n" s="25">
         <v>0.9999999968239953</v>
       </c>
-      <c r="N19" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N19" s="25"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1243,9 +1209,7 @@
       <c r="M20" t="n" s="25">
         <v>0.9999998542785645</v>
       </c>
-      <c r="N20" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N20" s="25"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1278,9 +1242,7 @@
       <c r="M21" t="n" s="25">
         <v>0.9999999999994041</v>
       </c>
-      <c r="N21" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N21" s="25"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1313,9 +1275,7 @@
       <c r="M22" t="n" s="25">
         <v>0.9999999955767064</v>
       </c>
-      <c r="N22" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N22" s="25"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1348,9 +1308,7 @@
       <c r="M23" t="n" s="25">
         <v>0.9999999993532905</v>
       </c>
-      <c r="N23" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N23" s="25"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1383,9 +1341,7 @@
       <c r="M24" t="n" s="25">
         <v>0.9999999955767064</v>
       </c>
-      <c r="N24" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N24" s="25"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1418,9 +1374,7 @@
       <c r="M25" t="n" s="25">
         <v>0.9999965887911014</v>
       </c>
-      <c r="N25" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N25" s="25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1453,9 +1407,7 @@
       <c r="M26" t="n" s="25">
         <v>2.112984338243597E-6</v>
       </c>
-      <c r="N26" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N26" s="25"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1488,9 +1440,7 @@
       <c r="M27" t="n" s="25">
         <v>1.0313531801675234E-9</v>
       </c>
-      <c r="N27" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N27" s="25"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1523,9 +1473,7 @@
       <c r="M28" t="n" s="25">
         <v>0.9998661381186057</v>
       </c>
-      <c r="N28" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N28" s="25"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1558,9 +1506,7 @@
       <c r="M29" t="n" s="25">
         <v>0.8917681441044742</v>
       </c>
-      <c r="N29" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N29" s="25"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1593,9 +1539,7 @@
       <c r="M30" t="n" s="25">
         <v>1.5565794779715726E-13</v>
       </c>
-      <c r="N30" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N30" s="25"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1628,9 +1572,7 @@
       <c r="M31" t="n" s="25">
         <v>0.9999999999035941</v>
       </c>
-      <c r="N31" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N31" s="25"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1663,9 +1605,7 @@
       <c r="M32" t="n" s="25">
         <v>2.5725895138027225E-14</v>
       </c>
-      <c r="N32" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N32" s="25"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1698,9 +1638,7 @@
       <c r="M33" t="n" s="25">
         <v>1.8959024835661338E-18</v>
       </c>
-      <c r="N33" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N33" s="25"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1733,9 +1671,7 @@
       <c r="M34" t="n" s="25">
         <v>1.2211626751590581E-12</v>
       </c>
-      <c r="N34" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N34" s="25"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1768,9 +1704,7 @@
       <c r="M35" t="n" s="25">
         <v>4.276879923343166E-23</v>
       </c>
-      <c r="N35" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N35" s="25"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1803,9 +1737,7 @@
       <c r="M36" t="n" s="25">
         <v>8.256833131987449E-14</v>
       </c>
-      <c r="N36" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N36" s="25"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1838,9 +1770,7 @@
       <c r="M37" t="n" s="25">
         <v>1.2211626751590581E-12</v>
       </c>
-      <c r="N37" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N37" s="25"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1873,9 +1803,7 @@
       <c r="M38" t="n" s="25">
         <v>5.8986950108905905E-5</v>
       </c>
-      <c r="N38" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N38" s="25"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1908,9 +1836,7 @@
       <c r="M39" t="n" s="25">
         <v>1.2211626751590581E-12</v>
       </c>
-      <c r="N39" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N39" s="25"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1943,9 +1869,7 @@
       <c r="M40" t="n" s="25">
         <v>8.348781198717857E-14</v>
       </c>
-      <c r="N40" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N40" s="25"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1978,9 +1902,7 @@
       <c r="M41" t="n" s="25">
         <v>0.9999991182937356</v>
       </c>
-      <c r="N41" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N41" s="25"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2013,9 +1935,7 @@
       <c r="M42" t="n" s="25">
         <v>1.5887762436107575E-18</v>
       </c>
-      <c r="N42" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N42" s="25"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2048,9 +1968,7 @@
       <c r="M43" t="n" s="25">
         <v>1.141504400050187E-12</v>
       </c>
-      <c r="N43" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N43" s="25"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2083,9 +2001,7 @@
       <c r="M44" t="n" s="25">
         <v>2.858642294841189E-11</v>
       </c>
-      <c r="N44" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N44" s="25"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2118,9 +2034,7 @@
       <c r="M45" t="n" s="25">
         <v>1.0584934492870696E-11</v>
       </c>
-      <c r="N45" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N45" s="25"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2153,9 +2067,7 @@
       <c r="M46" t="n" s="25">
         <v>5.240297083667884E-31</v>
       </c>
-      <c r="N46" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N46" s="25"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2188,9 +2100,7 @@
       <c r="M47" t="n" s="25">
         <v>3.1971430535478427E-19</v>
       </c>
-      <c r="N47" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N47" s="25"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2223,9 +2133,7 @@
       <c r="M48" t="n" s="25">
         <v>2.6160475291020657E-18</v>
       </c>
-      <c r="N48" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N48" s="25"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2258,9 +2166,7 @@
       <c r="M49" t="n" s="25">
         <v>1.0989658616417086E-15</v>
       </c>
-      <c r="N49" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N49" s="25"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2293,9 +2199,7 @@
       <c r="M50" t="n" s="25">
         <v>7.782438931252839E-20</v>
       </c>
-      <c r="N50" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N50" s="25"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2328,9 +2232,7 @@
       <c r="M51" t="n" s="25">
         <v>2.9130615869118875E-27</v>
       </c>
-      <c r="N51" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N51" s="25"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2363,9 +2265,7 @@
       <c r="M52" t="n" s="25">
         <v>5.5783473886923014E-14</v>
       </c>
-      <c r="N52" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N52" s="25"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2398,9 +2298,7 @@
       <c r="M53" t="n" s="25">
         <v>0.018249147382805763</v>
       </c>
-      <c r="N53" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N53" s="25"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2433,9 +2331,7 @@
       <c r="M54" t="n" s="25">
         <v>0.9911084457409042</v>
       </c>
-      <c r="N54" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N54" s="25"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2468,9 +2364,7 @@
       <c r="M55" t="n" s="25">
         <v>9.816516357342476E-7</v>
       </c>
-      <c r="N55" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N55" s="25"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2503,9 +2397,7 @@
       <c r="M56" t="n" s="25">
         <v>0.9999999968239953</v>
       </c>
-      <c r="N56" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N56" s="25"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2538,9 +2430,7 @@
       <c r="M57" t="n" s="25">
         <v>1.6615052077175435E-6</v>
       </c>
-      <c r="N57" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N57" s="25"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2573,9 +2463,7 @@
       <c r="M58" t="n" s="25">
         <v>0.8302301869083947</v>
       </c>
-      <c r="N58" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N58" s="25"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2608,9 +2496,7 @@
       <c r="M59" t="n" s="25">
         <v>0.0016025734105963466</v>
       </c>
-      <c r="N59" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N59" s="25"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2643,9 +2529,7 @@
       <c r="M60" t="n" s="25">
         <v>0.9998418714540626</v>
       </c>
-      <c r="N60" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N60" s="25"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2678,9 +2562,7 @@
       <c r="M61" t="n" s="25">
         <v>0.22767003709249012</v>
       </c>
-      <c r="N61" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N61" s="25"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2713,9 +2595,7 @@
       <c r="M62" t="n" s="25">
         <v>0.20972273058689597</v>
       </c>
-      <c r="N62" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N62" s="25"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2748,9 +2628,7 @@
       <c r="M63" t="n" s="25">
         <v>0.8598568946972319</v>
       </c>
-      <c r="N63" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N63" s="25"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2783,9 +2661,7 @@
       <c r="M64" t="n" s="25">
         <v>0.999811624386823</v>
       </c>
-      <c r="N64" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N64" s="25"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2818,9 +2694,7 @@
       <c r="M65" t="n" s="25">
         <v>0.8437296099391453</v>
       </c>
-      <c r="N65" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N65" s="25"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2853,9 +2727,7 @@
       <c r="M66" t="n" s="25">
         <v>6.115828773761405E-15</v>
       </c>
-      <c r="N66" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N66" s="25"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2888,9 +2760,7 @@
       <c r="M67" t="n" s="25">
         <v>3.3391447568337425E-7</v>
       </c>
-      <c r="N67" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N67" s="25"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2923,9 +2793,7 @@
       <c r="M68" t="n" s="25">
         <v>0.02369598868129255</v>
       </c>
-      <c r="N68" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N68" s="25"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2958,9 +2826,7 @@
       <c r="M69" t="n" s="25">
         <v>8.1481183387122E-18</v>
       </c>
-      <c r="N69" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N69" s="25"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2993,9 +2859,7 @@
       <c r="M70" t="n" s="25">
         <v>1.838240219420374E-8</v>
       </c>
-      <c r="N70" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N70" s="25"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3028,9 +2892,7 @@
       <c r="M71" t="n" s="25">
         <v>2.2542301059466732E-15</v>
       </c>
-      <c r="N71" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N71" s="25"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3063,9 +2925,7 @@
       <c r="M72" t="n" s="25">
         <v>2.3543718478731694E-7</v>
       </c>
-      <c r="N72" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N72" s="25"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3098,9 +2958,7 @@
       <c r="M73" t="n" s="25">
         <v>8.80288062570353E-16</v>
       </c>
-      <c r="N73" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N73" s="25"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3133,9 +2991,7 @@
       <c r="M74" t="n" s="25">
         <v>0.9938312542019977</v>
       </c>
-      <c r="N74" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N74" s="25"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3168,9 +3024,7 @@
       <c r="M75" t="n" s="25">
         <v>0.3661962380461479</v>
       </c>
-      <c r="N75" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N75" s="25"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3203,9 +3057,7 @@
       <c r="M76" t="n" s="25">
         <v>3.94977676897567E-9</v>
       </c>
-      <c r="N76" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N76" s="25"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3238,9 +3090,7 @@
       <c r="M77" t="n" s="25">
         <v>1.241721548531689E-17</v>
       </c>
-      <c r="N77" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N77" s="25"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3273,9 +3123,7 @@
       <c r="M78" t="n" s="25">
         <v>4.7468079723431916E-7</v>
       </c>
-      <c r="N78" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N78" s="25"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3308,9 +3156,7 @@
       <c r="M79" t="n" s="25">
         <v>1.9316216660048928E-6</v>
       </c>
-      <c r="N79" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N79" s="25"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3343,9 +3189,7 @@
       <c r="M80" t="n" s="25">
         <v>1.9121622758516966E-12</v>
       </c>
-      <c r="N80" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N80" s="25"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3378,9 +3222,7 @@
       <c r="M81" t="n" s="25">
         <v>4.102618279497406E-11</v>
       </c>
-      <c r="N81" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N81" s="25"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3413,9 +3255,7 @@
       <c r="M82" t="n" s="25">
         <v>3.5900124173746123E-12</v>
       </c>
-      <c r="N82" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N82" s="25"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3448,9 +3288,7 @@
       <c r="M83" t="n" s="25">
         <v>8.256833131987449E-14</v>
       </c>
-      <c r="N83" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N83" s="25"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3483,9 +3321,7 @@
       <c r="M84" t="n" s="25">
         <v>0.9305214906095709</v>
       </c>
-      <c r="N84" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N84" s="25"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3518,9 +3354,7 @@
       <c r="M85" t="n" s="25">
         <v>0.999811624386823</v>
       </c>
-      <c r="N85" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N85" s="25"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3553,9 +3387,7 @@
       <c r="M86" t="n" s="25">
         <v>0.0031714714487576403</v>
       </c>
-      <c r="N86" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N86" s="25"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3588,9 +3420,7 @@
       <c r="M87" t="n" s="25">
         <v>0.556880477677689</v>
       </c>
-      <c r="N87" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N87" s="25"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3623,9 +3453,7 @@
       <c r="M88" t="n" s="25">
         <v>4.919496350048868E-13</v>
       </c>
-      <c r="N88" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N88" s="25"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3658,9 +3486,7 @@
       <c r="M89" t="n" s="25">
         <v>0.0018964903260008236</v>
       </c>
-      <c r="N89" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N89" s="25"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3693,9 +3519,7 @@
       <c r="M90" t="n" s="25">
         <v>0.015232785303796539</v>
       </c>
-      <c r="N90" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N90" s="25"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3728,9 +3552,7 @@
       <c r="M91" t="n" s="25">
         <v>6.822762113233087E-14</v>
       </c>
-      <c r="N91" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N91" s="25"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3763,9 +3585,7 @@
       <c r="M92" t="n" s="25">
         <v>0.1455462357869421</v>
       </c>
-      <c r="N92" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N92" s="25"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3798,9 +3618,7 @@
       <c r="M93" t="n" s="25">
         <v>1.3052048508562164E-9</v>
       </c>
-      <c r="N93" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N93" s="25"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3833,9 +3651,7 @@
       <c r="M94" t="n" s="25">
         <v>0.9938312542019977</v>
       </c>
-      <c r="N94" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N94" s="25"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3868,9 +3684,7 @@
       <c r="M95" t="n" s="25">
         <v>1.261426890633309E-9</v>
       </c>
-      <c r="N95" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N95" s="25"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3903,9 +3717,7 @@
       <c r="M96" t="n" s="25">
         <v>0.03311695307474193</v>
       </c>
-      <c r="N96" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N96" s="25"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3938,9 +3750,7 @@
       <c r="M97" t="n" s="25">
         <v>0.8511260430803713</v>
       </c>
-      <c r="N97" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N97" s="25"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3973,9 +3783,7 @@
       <c r="M98" t="n" s="25">
         <v>1.4828070851614292E-8</v>
       </c>
-      <c r="N98" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N98" s="25"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4008,9 +3816,7 @@
       <c r="M99" t="n" s="25">
         <v>0.02588226109177946</v>
       </c>
-      <c r="N99" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N99" s="25"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4043,9 +3849,7 @@
       <c r="M100" t="n" s="25">
         <v>8.16607815069633E-15</v>
       </c>
-      <c r="N100" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N100" s="25"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4078,9 +3882,7 @@
       <c r="M101" t="n" s="25">
         <v>0.22767003709249012</v>
       </c>
-      <c r="N101" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N101" s="25"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4113,9 +3915,7 @@
       <c r="M102" t="n" s="25">
         <v>5.3095286015404024E-11</v>
       </c>
-      <c r="N102" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N102" s="25"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4148,9 +3948,7 @@
       <c r="M103" t="n" s="25">
         <v>7.156952926851524E-13</v>
       </c>
-      <c r="N103" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N103" s="25"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4183,9 +3981,7 @@
       <c r="M104" t="n" s="25">
         <v>3.5900124173746123E-12</v>
       </c>
-      <c r="N104" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N104" s="25"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4218,9 +4014,7 @@
       <c r="M105" t="n" s="25">
         <v>6.245654632729582E-10</v>
       </c>
-      <c r="N105" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N105" s="25"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4253,9 +4047,7 @@
       <c r="M106" t="n" s="25">
         <v>1.2211626751590581E-12</v>
       </c>
-      <c r="N106" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N106" s="25"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4288,9 +4080,7 @@
       <c r="M107" t="n" s="25">
         <v>8.254762617082588E-10</v>
       </c>
-      <c r="N107" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N107" s="25"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4323,9 +4113,7 @@
       <c r="M108" t="n" s="25">
         <v>0.9999951993599308</v>
       </c>
-      <c r="N108" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N108" s="25"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4358,9 +4146,7 @@
       <c r="M109" t="n" s="25">
         <v>4.923125639194195E-17</v>
       </c>
-      <c r="N109" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N109" s="25"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4393,9 +4179,7 @@
       <c r="M110" t="n" s="25">
         <v>1.7052308582944113E-8</v>
       </c>
-      <c r="N110" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N110" s="25"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4428,9 +4212,7 @@
       <c r="M111" t="n" s="25">
         <v>8.256833131987449E-14</v>
       </c>
-      <c r="N111" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N111" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
